--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.997446017875433</v>
+        <v>1.997446017875689</v>
       </c>
       <c r="C2">
-        <v>0.4691739381893569</v>
+        <v>0.469173938189499</v>
       </c>
       <c r="D2">
-        <v>0.3328947818223753</v>
+        <v>0.33289478182256</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.563918313515671</v>
+        <v>6.563918313515785</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.821884005553642</v>
+        <v>2.821884005553684</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.705387834422453</v>
+        <v>1.705387834422368</v>
       </c>
       <c r="C3">
-        <v>0.4020981585472612</v>
+        <v>0.4020981585476306</v>
       </c>
       <c r="D3">
-        <v>0.2915222723855209</v>
+        <v>0.2915222723852082</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.709081120085898</v>
+        <v>5.709081120085926</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.38797291079436</v>
+        <v>2.387972910794332</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.530891311080467</v>
       </c>
       <c r="C4">
-        <v>0.3620534330133012</v>
+        <v>0.3620534330127896</v>
       </c>
       <c r="D4">
-        <v>0.2668788862917921</v>
+        <v>0.2668788862920621</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.199114067312934</v>
+        <v>5.199114067313047</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.133459009516301</v>
+        <v>2.133459009516258</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.460801715222033</v>
+        <v>1.460801715222004</v>
       </c>
       <c r="C5">
-        <v>0.3459694130290245</v>
+        <v>0.3459694130293371</v>
       </c>
       <c r="D5">
-        <v>0.2569938884920475</v>
+        <v>0.2569938884918201</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032177516803614</v>
+        <v>2.032177516803586</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.449219701965262</v>
+        <v>1.449219701965376</v>
       </c>
       <c r="C6">
-        <v>0.3433114394287458</v>
+        <v>0.3433114394287315</v>
       </c>
       <c r="D6">
-        <v>0.2553611000168701</v>
+        <v>0.2553611000166143</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.960618389989321</v>
+        <v>4.960618389989378</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.01549235402814</v>
+        <v>2.015492354028154</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.529942171841043</v>
+        <v>1.529942171840872</v>
       </c>
       <c r="C7">
-        <v>0.361835632781947</v>
+        <v>0.361835632782487</v>
       </c>
       <c r="D7">
-        <v>0.266744977653957</v>
+        <v>0.2667449776541417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.196341724861924</v>
+        <v>5.196341724861981</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.13208390075286</v>
+        <v>2.132083900752889</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.895616722399637</v>
+        <v>1.895616722399666</v>
       </c>
       <c r="C8">
-        <v>0.4457759677580668</v>
+        <v>0.4457759677584932</v>
       </c>
       <c r="D8">
-        <v>0.3184501547083727</v>
+        <v>0.3184501547083158</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.265679765594626</v>
+        <v>6.265679765594598</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.669428850251578</v>
+        <v>2.66942885025162</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.66138926894422</v>
+        <v>2.661389268944276</v>
       </c>
       <c r="C9">
-        <v>0.6222130318455186</v>
+        <v>0.6222130318459449</v>
       </c>
       <c r="D9">
-        <v>0.4276892366398783</v>
+        <v>0.4276892366400489</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.514020333642662</v>
+        <v>8.514020333642748</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.84996339583536</v>
+        <v>3.849963395835402</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.271319161195038</v>
+        <v>3.271319161195265</v>
       </c>
       <c r="C10">
-        <v>0.7638020121973739</v>
+        <v>0.7638020121973454</v>
       </c>
       <c r="D10">
-        <v>0.5159164030044963</v>
+        <v>0.5159164030046952</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.31572516985489</v>
+        <v>10.31572516985483</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.856351792258152</v>
+        <v>4.856351792258096</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.564232240434194</v>
+        <v>3.564232240434137</v>
       </c>
       <c r="C11">
-        <v>0.8322061924349384</v>
+        <v>0.8322061924353648</v>
       </c>
       <c r="D11">
-        <v>0.5587678765496662</v>
+        <v>0.5587678765496378</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.365938353753975</v>
+        <v>5.36593835375399</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.677937461098338</v>
+        <v>3.677937461098225</v>
       </c>
       <c r="C12">
-        <v>0.8588358199017421</v>
+        <v>0.8588358199017136</v>
       </c>
       <c r="D12">
-        <v>0.5754995065684341</v>
+        <v>0.5754995065690878</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.5240678834291</v>
+        <v>11.52406788342927</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.569149265960931</v>
+        <v>5.569149265960959</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.653314589047397</v>
+        <v>3.653314589047625</v>
       </c>
       <c r="C13">
-        <v>0.8530655078099301</v>
+        <v>0.853065507809049</v>
       </c>
       <c r="D13">
-        <v>0.5718713816703485</v>
+        <v>0.5718713816700927</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.57352727209809</v>
+        <v>3.573527272097863</v>
       </c>
       <c r="C14">
-        <v>0.8343814612621543</v>
+        <v>0.8343814612621259</v>
       </c>
       <c r="D14">
         <v>0.5601334966455624</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.525037128401607</v>
+        <v>3.52503712840155</v>
       </c>
       <c r="C15">
-        <v>0.8230367066006181</v>
+        <v>0.8230367066010729</v>
       </c>
       <c r="D15">
-        <v>0.5530134399721192</v>
+        <v>0.5530134399718634</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06890142602435</v>
+        <v>11.06890142602452</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.252532605240106</v>
+        <v>3.252532605240276</v>
       </c>
       <c r="C16">
-        <v>0.7594241904625676</v>
+        <v>0.7594241904621697</v>
       </c>
       <c r="D16">
-        <v>0.513179589126338</v>
+        <v>0.5131795891263664</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.26005236954495</v>
+        <v>10.26005236954487</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.824304402313146</v>
+        <v>4.824304402313103</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089677156350717</v>
+        <v>3.089677156351001</v>
       </c>
       <c r="C17">
-        <v>0.7215202201738862</v>
+        <v>0.7215202201738293</v>
       </c>
       <c r="D17">
-        <v>0.4895093829101427</v>
+        <v>0.4895093829103132</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.777951193306365</v>
+        <v>9.777951193306478</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.549469867408163</v>
+        <v>4.549469867408277</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.997420964568221</v>
+        <v>2.997420964567993</v>
       </c>
       <c r="C18">
-        <v>0.7000839158575616</v>
+        <v>0.7000839158571353</v>
       </c>
       <c r="D18">
-        <v>0.476142142993325</v>
+        <v>0.4761421429937513</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.505231719038647</v>
+        <v>9.505231719038733</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.39604845626863</v>
+        <v>4.396048456268602</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.966412446372544</v>
+        <v>2.966412446372374</v>
       </c>
       <c r="C19">
-        <v>0.6928845939874577</v>
+        <v>0.6928845939878556</v>
       </c>
       <c r="D19">
-        <v>0.4716557526681413</v>
+        <v>0.4716557526679139</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.413626768363514</v>
+        <v>9.413626768363571</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.344834571269217</v>
+        <v>4.344834571269161</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.106863411406493</v>
+        <v>3.106863411406437</v>
       </c>
       <c r="C20">
         <v>0.7255163948415202</v>
       </c>
       <c r="D20">
-        <v>0.4920028118230846</v>
+        <v>0.4920028118228856</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.828785744587321</v>
+        <v>9.82878574458735</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.578227892270149</v>
+        <v>4.578227892270107</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.596881938583238</v>
+        <v>3.596881938583351</v>
       </c>
       <c r="C21">
-        <v>0.8398483007701429</v>
+        <v>0.8398483007704272</v>
       </c>
       <c r="D21">
-        <v>0.56356640627763</v>
+        <v>0.5635664062777153</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.28264763181454</v>
+        <v>11.28264763181494</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.42396255177627</v>
+        <v>5.423962551776327</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.933749213967019</v>
+        <v>3.933749213966678</v>
       </c>
       <c r="C22">
-        <v>0.9189059744213068</v>
+        <v>0.9189059744219037</v>
       </c>
       <c r="D22">
-        <v>0.6133627349543076</v>
+        <v>0.6133627349544497</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.28805484532262</v>
+        <v>12.28805484532216</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.752210261207949</v>
+        <v>3.752210261208063</v>
       </c>
       <c r="C23">
-        <v>0.876253828748446</v>
+        <v>0.8762538287485029</v>
       </c>
       <c r="D23">
-        <v>0.5864603123413303</v>
+        <v>0.5864603123412166</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74555114873453</v>
+        <v>11.74555114873431</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.703659012334896</v>
+        <v>5.703659012334867</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.099089273853053</v>
+        <v>3.099089273852712</v>
       </c>
       <c r="C24">
-        <v>0.7237086288728847</v>
+        <v>0.7237086288728278</v>
       </c>
       <c r="D24">
-        <v>0.4908747897793546</v>
+        <v>0.490874789779582</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.805789735613189</v>
+        <v>9.805789735613246</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.565212301445854</v>
+        <v>4.565212301445911</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.447395805968199</v>
+        <v>2.44739580596854</v>
       </c>
       <c r="C25">
-        <v>0.5727803608254192</v>
+        <v>0.5727803608257602</v>
       </c>
       <c r="D25">
-        <v>0.397010127253921</v>
+        <v>0.3970101272532389</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.88436846506491</v>
+        <v>7.88436846506508</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.511735746037814</v>
+        <v>3.511735746037829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.997446017875689</v>
+        <v>1.997446017875433</v>
       </c>
       <c r="C2">
-        <v>0.469173938189499</v>
+        <v>0.4691739381893569</v>
       </c>
       <c r="D2">
-        <v>0.33289478182256</v>
+        <v>0.3328947818223753</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.563918313515785</v>
+        <v>6.563918313515671</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.821884005553684</v>
+        <v>2.821884005553642</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.705387834422368</v>
+        <v>1.705387834422453</v>
       </c>
       <c r="C3">
-        <v>0.4020981585476306</v>
+        <v>0.4020981585472612</v>
       </c>
       <c r="D3">
-        <v>0.2915222723852082</v>
+        <v>0.2915222723855209</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.709081120085926</v>
+        <v>5.709081120085898</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.387972910794332</v>
+        <v>2.38797291079436</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>1.530891311080467</v>
       </c>
       <c r="C4">
-        <v>0.3620534330127896</v>
+        <v>0.3620534330133012</v>
       </c>
       <c r="D4">
-        <v>0.2668788862920621</v>
+        <v>0.2668788862917921</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.199114067313047</v>
+        <v>5.199114067312934</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.133459009516258</v>
+        <v>2.133459009516301</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.460801715222004</v>
+        <v>1.460801715222033</v>
       </c>
       <c r="C5">
-        <v>0.3459694130293371</v>
+        <v>0.3459694130290245</v>
       </c>
       <c r="D5">
-        <v>0.2569938884918201</v>
+        <v>0.2569938884920475</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032177516803586</v>
+        <v>2.032177516803614</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.449219701965376</v>
+        <v>1.449219701965262</v>
       </c>
       <c r="C6">
-        <v>0.3433114394287315</v>
+        <v>0.3433114394287458</v>
       </c>
       <c r="D6">
-        <v>0.2553611000166143</v>
+        <v>0.2553611000168701</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.960618389989378</v>
+        <v>4.960618389989321</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.015492354028154</v>
+        <v>2.01549235402814</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.529942171840872</v>
+        <v>1.529942171841043</v>
       </c>
       <c r="C7">
-        <v>0.361835632782487</v>
+        <v>0.361835632781947</v>
       </c>
       <c r="D7">
-        <v>0.2667449776541417</v>
+        <v>0.266744977653957</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.196341724861981</v>
+        <v>5.196341724861924</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.132083900752889</v>
+        <v>2.13208390075286</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.895616722399666</v>
+        <v>1.895616722399637</v>
       </c>
       <c r="C8">
-        <v>0.4457759677584932</v>
+        <v>0.4457759677580668</v>
       </c>
       <c r="D8">
-        <v>0.3184501547083158</v>
+        <v>0.3184501547083727</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.265679765594598</v>
+        <v>6.265679765594626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.66942885025162</v>
+        <v>2.669428850251578</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.661389268944276</v>
+        <v>2.66138926894422</v>
       </c>
       <c r="C9">
-        <v>0.6222130318459449</v>
+        <v>0.6222130318455186</v>
       </c>
       <c r="D9">
-        <v>0.4276892366400489</v>
+        <v>0.4276892366398783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.514020333642748</v>
+        <v>8.514020333642662</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.849963395835402</v>
+        <v>3.84996339583536</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.271319161195265</v>
+        <v>3.271319161195038</v>
       </c>
       <c r="C10">
-        <v>0.7638020121973454</v>
+        <v>0.7638020121973739</v>
       </c>
       <c r="D10">
-        <v>0.5159164030046952</v>
+        <v>0.5159164030044963</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.31572516985483</v>
+        <v>10.31572516985489</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.856351792258096</v>
+        <v>4.856351792258152</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.564232240434137</v>
+        <v>3.564232240434194</v>
       </c>
       <c r="C11">
-        <v>0.8322061924353648</v>
+        <v>0.8322061924349384</v>
       </c>
       <c r="D11">
-        <v>0.5587678765496378</v>
+        <v>0.5587678765496662</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.36593835375399</v>
+        <v>5.365938353753975</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.677937461098225</v>
+        <v>3.677937461098338</v>
       </c>
       <c r="C12">
-        <v>0.8588358199017136</v>
+        <v>0.8588358199017421</v>
       </c>
       <c r="D12">
-        <v>0.5754995065690878</v>
+        <v>0.5754995065684341</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.52406788342927</v>
+        <v>11.5240678834291</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.569149265960959</v>
+        <v>5.569149265960931</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.653314589047625</v>
+        <v>3.653314589047397</v>
       </c>
       <c r="C13">
-        <v>0.853065507809049</v>
+        <v>0.8530655078099301</v>
       </c>
       <c r="D13">
-        <v>0.5718713816700927</v>
+        <v>0.5718713816703485</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.573527272097863</v>
+        <v>3.57352727209809</v>
       </c>
       <c r="C14">
-        <v>0.8343814612621259</v>
+        <v>0.8343814612621543</v>
       </c>
       <c r="D14">
         <v>0.5601334966455624</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.52503712840155</v>
+        <v>3.525037128401607</v>
       </c>
       <c r="C15">
-        <v>0.8230367066010729</v>
+        <v>0.8230367066006181</v>
       </c>
       <c r="D15">
-        <v>0.5530134399718634</v>
+        <v>0.5530134399721192</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06890142602452</v>
+        <v>11.06890142602435</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.252532605240276</v>
+        <v>3.252532605240106</v>
       </c>
       <c r="C16">
-        <v>0.7594241904621697</v>
+        <v>0.7594241904625676</v>
       </c>
       <c r="D16">
-        <v>0.5131795891263664</v>
+        <v>0.513179589126338</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.26005236954487</v>
+        <v>10.26005236954495</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.824304402313103</v>
+        <v>4.824304402313146</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089677156351001</v>
+        <v>3.089677156350717</v>
       </c>
       <c r="C17">
-        <v>0.7215202201738293</v>
+        <v>0.7215202201738862</v>
       </c>
       <c r="D17">
-        <v>0.4895093829103132</v>
+        <v>0.4895093829101427</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.777951193306478</v>
+        <v>9.777951193306365</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.549469867408277</v>
+        <v>4.549469867408163</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.997420964567993</v>
+        <v>2.997420964568221</v>
       </c>
       <c r="C18">
-        <v>0.7000839158571353</v>
+        <v>0.7000839158575616</v>
       </c>
       <c r="D18">
-        <v>0.4761421429937513</v>
+        <v>0.476142142993325</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.505231719038733</v>
+        <v>9.505231719038647</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.396048456268602</v>
+        <v>4.39604845626863</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.966412446372374</v>
+        <v>2.966412446372544</v>
       </c>
       <c r="C19">
-        <v>0.6928845939878556</v>
+        <v>0.6928845939874577</v>
       </c>
       <c r="D19">
-        <v>0.4716557526679139</v>
+        <v>0.4716557526681413</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.413626768363571</v>
+        <v>9.413626768363514</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.344834571269161</v>
+        <v>4.344834571269217</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.106863411406437</v>
+        <v>3.106863411406493</v>
       </c>
       <c r="C20">
         <v>0.7255163948415202</v>
       </c>
       <c r="D20">
-        <v>0.4920028118228856</v>
+        <v>0.4920028118230846</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.82878574458735</v>
+        <v>9.828785744587321</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.578227892270107</v>
+        <v>4.578227892270149</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.596881938583351</v>
+        <v>3.596881938583238</v>
       </c>
       <c r="C21">
-        <v>0.8398483007704272</v>
+        <v>0.8398483007701429</v>
       </c>
       <c r="D21">
-        <v>0.5635664062777153</v>
+        <v>0.56356640627763</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.28264763181494</v>
+        <v>11.28264763181454</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.423962551776327</v>
+        <v>5.42396255177627</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.933749213966678</v>
+        <v>3.933749213967019</v>
       </c>
       <c r="C22">
-        <v>0.9189059744219037</v>
+        <v>0.9189059744213068</v>
       </c>
       <c r="D22">
-        <v>0.6133627349544497</v>
+        <v>0.6133627349543076</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.28805484532216</v>
+        <v>12.28805484532262</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.752210261208063</v>
+        <v>3.752210261207949</v>
       </c>
       <c r="C23">
-        <v>0.8762538287485029</v>
+        <v>0.876253828748446</v>
       </c>
       <c r="D23">
-        <v>0.5864603123412166</v>
+        <v>0.5864603123413303</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74555114873431</v>
+        <v>11.74555114873453</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.703659012334867</v>
+        <v>5.703659012334896</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.099089273852712</v>
+        <v>3.099089273853053</v>
       </c>
       <c r="C24">
-        <v>0.7237086288728278</v>
+        <v>0.7237086288728847</v>
       </c>
       <c r="D24">
-        <v>0.490874789779582</v>
+        <v>0.4908747897793546</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.805789735613246</v>
+        <v>9.805789735613189</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.565212301445911</v>
+        <v>4.565212301445854</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.44739580596854</v>
+        <v>2.447395805968199</v>
       </c>
       <c r="C25">
-        <v>0.5727803608257602</v>
+        <v>0.5727803608254192</v>
       </c>
       <c r="D25">
-        <v>0.3970101272532389</v>
+        <v>0.397010127253921</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.88436846506508</v>
+        <v>7.88436846506491</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.511735746037829</v>
+        <v>3.511735746037814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.997446017875433</v>
+        <v>1.966583844908342</v>
       </c>
       <c r="C2">
-        <v>0.4691739381893569</v>
+        <v>0.4533673900160125</v>
       </c>
       <c r="D2">
-        <v>0.3328947818223753</v>
+        <v>0.3362125631295783</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.563918313515671</v>
+        <v>6.566886320426221</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007641528165374464</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,30 +445,33 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.821884005553642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.81352250668516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.705387834422453</v>
+        <v>1.679124682166702</v>
       </c>
       <c r="C3">
-        <v>0.4020981585472612</v>
+        <v>0.3877937384120571</v>
       </c>
       <c r="D3">
-        <v>0.2915222723855209</v>
+        <v>0.2951689128350097</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.709081120085898</v>
+        <v>5.719228373519854</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007757735375717445</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,30 +486,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.38797291079436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.381247774605853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.530891311080467</v>
+        <v>1.507438124501249</v>
       </c>
       <c r="C4">
-        <v>0.3620534330133012</v>
+        <v>0.3486688004326766</v>
       </c>
       <c r="D4">
-        <v>0.2668788862917921</v>
+        <v>0.2707157136666893</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.199114067312934</v>
+        <v>5.213505962489165</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007830046077136965</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,30 +527,33 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.133459009516301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.127632244981982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.460801715222033</v>
+        <v>1.438493837616164</v>
       </c>
       <c r="C5">
-        <v>0.3459694130290245</v>
+        <v>0.3329601389211803</v>
       </c>
       <c r="D5">
-        <v>0.2569938884920475</v>
+        <v>0.2609058456314699</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.994432701741658</v>
+        <v>5.010522987526628</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007859805122292539</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,30 +568,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032177516803614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.026696394533673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.449219701965262</v>
+        <v>1.427102112853106</v>
       </c>
       <c r="C6">
-        <v>0.3433114394287458</v>
+        <v>0.3303645565720075</v>
       </c>
       <c r="D6">
-        <v>0.2553611000168701</v>
+        <v>0.2592854039902335</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.960618389989321</v>
+        <v>4.976989052455735</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000786476556798836</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,30 +609,33 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.01549235402814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.010067544497872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.529942171841043</v>
+        <v>1.506504425919559</v>
       </c>
       <c r="C7">
-        <v>0.361835632781947</v>
+        <v>0.3484560588256329</v>
       </c>
       <c r="D7">
-        <v>0.266744977653957</v>
+        <v>0.2705828271761845</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.196341724861924</v>
+        <v>5.210756640365815</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007830446176189359</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,30 +650,33 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.13208390075286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.126261873318057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.895616722399637</v>
+        <v>1.866345601979702</v>
       </c>
       <c r="C8">
-        <v>0.4457759677580668</v>
+        <v>0.430488646331554</v>
       </c>
       <c r="D8">
-        <v>0.3184501547083727</v>
+        <v>0.321884146012124</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.265679765594626</v>
+        <v>6.271163576704424</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007681430225563958</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,30 +691,33 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.669428850251578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.661657997898232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.66138926894422</v>
+        <v>2.620360673580649</v>
       </c>
       <c r="C9">
-        <v>0.6222130318455186</v>
+        <v>0.6030989982682513</v>
       </c>
       <c r="D9">
-        <v>0.4276892366398783</v>
+        <v>0.4302045305422126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.514020333642662</v>
+        <v>8.500128348622724</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007394064992382892</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,30 +732,33 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.84996339583536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.837116672335014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.271319161195038</v>
+        <v>3.221077320959409</v>
       </c>
       <c r="C10">
-        <v>0.7638020121973739</v>
+        <v>0.741705188896816</v>
       </c>
       <c r="D10">
-        <v>0.5159164030044963</v>
+        <v>0.5176145025720018</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.31572516985489</v>
+        <v>10.28538029329718</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007181043650690595</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,30 +773,33 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.856351792258152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.838089281624235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.564232240434194</v>
+        <v>3.509550325798386</v>
       </c>
       <c r="C11">
-        <v>0.8322061924349384</v>
+        <v>0.8086769774924392</v>
       </c>
       <c r="D11">
-        <v>0.5587678765496662</v>
+        <v>0.5600403053063587</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.18548386238217</v>
+        <v>11.14679361882645</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007082210092084522</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,30 +814,33 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.365938353753975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.344449149033835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.677937461098338</v>
+        <v>3.62152350347742</v>
       </c>
       <c r="C12">
-        <v>0.8588358199017421</v>
+        <v>0.834748802189722</v>
       </c>
       <c r="D12">
-        <v>0.5754995065684341</v>
+        <v>0.5765999581024346</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.5240678834291</v>
+        <v>11.48204430684797</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007044329524964469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,30 +855,33 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.569149265960931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.546266959912458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.653314589047397</v>
+        <v>3.597276206369315</v>
       </c>
       <c r="C13">
-        <v>0.8530655078099301</v>
+        <v>0.8290993958446506</v>
       </c>
       <c r="D13">
-        <v>0.5718713816703485</v>
+        <v>0.5730094147789089</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.45069851808938</v>
+        <v>11.40940156188952</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007052511466605245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,30 +896,33 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.524870604682292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.502297356029246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.57352727209809</v>
+        <v>3.518703981034889</v>
       </c>
       <c r="C14">
-        <v>0.8343814612621543</v>
+        <v>0.8108066952742092</v>
       </c>
       <c r="D14">
-        <v>0.5601334966455624</v>
+        <v>0.5613920152093783</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.21314070017513</v>
+        <v>11.17418005235896</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007079103970382361</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,30 +937,33 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.382430957419459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.360831065398287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.525037128401607</v>
+        <v>3.470950985600837</v>
       </c>
       <c r="C15">
-        <v>0.8230367066006181</v>
+        <v>0.7996994876173176</v>
       </c>
       <c r="D15">
-        <v>0.5530134399721192</v>
+        <v>0.5543442416717426</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.06890142602435</v>
+        <v>11.03134745620974</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007095327206121264</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,30 +978,33 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.296619917915862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.275591461001113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.252532605240106</v>
+        <v>3.202574763553173</v>
       </c>
       <c r="C16">
-        <v>0.7594241904625676</v>
+        <v>0.7374191028814039</v>
       </c>
       <c r="D16">
-        <v>0.513179589126338</v>
+        <v>0.5149041918611488</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.26005236954495</v>
+        <v>10.23023179914136</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007187449965364417</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,30 +1019,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.824304402313146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.80623294385876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.089677156350717</v>
+        <v>3.042179011400378</v>
       </c>
       <c r="C17">
-        <v>0.7215202201738862</v>
+        <v>0.7003102163821495</v>
       </c>
       <c r="D17">
-        <v>0.4895093829101427</v>
+        <v>0.4914599771773283</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.777951193306365</v>
+        <v>9.752625189155992</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007243360871565641</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,30 +1060,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.549469867408163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.53298342652829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.997420964568221</v>
+        <v>2.951315263911226</v>
       </c>
       <c r="C18">
-        <v>0.7000839158575616</v>
+        <v>0.6793244553911393</v>
       </c>
       <c r="D18">
-        <v>0.476142142993325</v>
+        <v>0.4782178825172991</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.505231719038647</v>
+        <v>9.482413677144677</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007275350955600462</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,30 +1101,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.39604845626863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.380406923694864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.966412446372544</v>
+        <v>2.920774749106272</v>
       </c>
       <c r="C19">
-        <v>0.6928845939874577</v>
+        <v>0.6722766331506023</v>
       </c>
       <c r="D19">
-        <v>0.4716557526681413</v>
+        <v>0.4737731058719135</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.413626768363514</v>
+        <v>9.391645813254769</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000728615785409513</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,30 +1142,33 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.344834571269217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.329468988123793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.106863411406493</v>
+        <v>3.059105828704674</v>
       </c>
       <c r="C20">
-        <v>0.7255163948415202</v>
+        <v>0.7042224817881788</v>
       </c>
       <c r="D20">
-        <v>0.4920028118230846</v>
+        <v>0.493929867682283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.828785744587321</v>
+        <v>9.802989569145495</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007237427593193062</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,30 +1183,33 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.578227892270149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.561579967830269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.596881938583238</v>
+        <v>3.541703265976651</v>
       </c>
       <c r="C21">
-        <v>0.8398483007701429</v>
+        <v>0.8161590482091015</v>
       </c>
       <c r="D21">
-        <v>0.56356640627763</v>
+        <v>0.5647898591255114</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.28264763181454</v>
+        <v>11.24300595517172</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007071307149855358</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,30 +1224,33 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.42396255177627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.402082093752455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.933749213967019</v>
+        <v>3.873413787803315</v>
       </c>
       <c r="C22">
-        <v>0.9189059744213068</v>
+        <v>0.8935582108468338</v>
       </c>
       <c r="D22">
-        <v>0.6133627349543076</v>
+        <v>0.6140608797630023</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.28805484532262</v>
+        <v>12.2383134783538</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006959957204193886</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,30 +1265,33 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.03874140868038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>6.012379519626364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.752210261207949</v>
+        <v>3.694661572026462</v>
       </c>
       <c r="C23">
-        <v>0.876253828748446</v>
+        <v>0.8518016808528444</v>
       </c>
       <c r="D23">
-        <v>0.5864603123413303</v>
+        <v>0.5874462267902913</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.74555114873453</v>
+        <v>11.70131914125528</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000701971695912738</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,30 +1306,33 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.703659012334896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.679818398032864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.099089273853053</v>
+        <v>3.05144904940272</v>
       </c>
       <c r="C24">
-        <v>0.7237086288728847</v>
+        <v>0.7024526713127557</v>
       </c>
       <c r="D24">
-        <v>0.4908747897793546</v>
+        <v>0.492812502035008</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.805789735613189</v>
+        <v>9.780206358021843</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007240110493169767</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,30 +1347,33 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.565212301445854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.54863758633887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.447395805968199</v>
+        <v>2.409615515051541</v>
       </c>
       <c r="C25">
-        <v>0.5727803608254192</v>
+        <v>0.5547212473079242</v>
       </c>
       <c r="D25">
-        <v>0.397010127253921</v>
+        <v>0.3997930475588305</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.88436846506491</v>
+        <v>7.876010034066837</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000747172111499896</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.511735746037814</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.500468144289428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.966583844908342</v>
+        <v>3.581580424265837</v>
       </c>
       <c r="C2">
-        <v>0.4533673900160125</v>
+        <v>0.9677207376580839</v>
       </c>
       <c r="D2">
-        <v>0.3362125631295783</v>
+        <v>0.02682473666191498</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.566886320426221</v>
+        <v>0.6590287040881719</v>
       </c>
       <c r="G2">
-        <v>0.0007641528165374464</v>
+        <v>0.0007765448678639221</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.81352250668516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.441438800064951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679124682166702</v>
+        <v>3.101407423279852</v>
       </c>
       <c r="C3">
-        <v>0.3877937384120571</v>
+        <v>0.8419506203149183</v>
       </c>
       <c r="D3">
-        <v>0.2951689128350097</v>
+        <v>0.02555633274549862</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.719228373519854</v>
+        <v>0.5997459015366147</v>
       </c>
       <c r="G3">
-        <v>0.0007757735375717445</v>
+        <v>0.0007836806838782355</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.381247774605853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.408868982416891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.507438124501249</v>
+        <v>2.808850449527654</v>
       </c>
       <c r="C4">
-        <v>0.3486688004326766</v>
+        <v>0.7651637689384643</v>
       </c>
       <c r="D4">
-        <v>0.2707157136666893</v>
+        <v>0.02483370443399835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.213505962489165</v>
+        <v>0.5666054041895237</v>
       </c>
       <c r="G4">
-        <v>0.0007830046077136965</v>
+        <v>0.000788175833797934</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.127632244981982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.3915279108543359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.438493837616164</v>
+        <v>2.690096166251351</v>
       </c>
       <c r="C5">
-        <v>0.3329601389211803</v>
+        <v>0.7339565019348129</v>
       </c>
       <c r="D5">
-        <v>0.2609058456314699</v>
+        <v>0.02455208031291534</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.010522987526628</v>
+        <v>0.5538488508102759</v>
       </c>
       <c r="G5">
-        <v>0.0007859805122292539</v>
+        <v>0.0007900374992656396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.026696394533673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.3850730448313016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.427102112853106</v>
+        <v>2.670402261131073</v>
       </c>
       <c r="C6">
-        <v>0.3303645565720075</v>
+        <v>0.7287789209343316</v>
       </c>
       <c r="D6">
-        <v>0.2592854039902335</v>
+        <v>0.02450605842130216</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.976989052455735</v>
+        <v>0.5517738616807506</v>
       </c>
       <c r="G6">
-        <v>0.000786476556798836</v>
+        <v>0.0007903484656846855</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.010067544497872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.3840366013368453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.506504425919559</v>
+        <v>2.807247138578475</v>
       </c>
       <c r="C7">
-        <v>0.3484560588256329</v>
+        <v>0.7647425891698276</v>
       </c>
       <c r="D7">
-        <v>0.2705828271761845</v>
+        <v>0.02482985589789877</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.210756640365815</v>
+        <v>0.5664304244551843</v>
       </c>
       <c r="G7">
-        <v>0.0007830446176189359</v>
+        <v>0.0007882008183962289</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.126261873318057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.3914384526385604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.866345601979702</v>
+        <v>3.415478633968632</v>
       </c>
       <c r="C8">
-        <v>0.430488646331554</v>
+        <v>0.9242483532201788</v>
       </c>
       <c r="D8">
-        <v>0.321884146012124</v>
+        <v>0.0263749214979363</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.271163576704424</v>
+        <v>0.6378669613037147</v>
       </c>
       <c r="G8">
-        <v>0.0007681430225563958</v>
+        <v>0.0007789824796528493</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.661657997898232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.4296219846764373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.620360673580649</v>
+        <v>4.631566192432729</v>
       </c>
       <c r="C9">
-        <v>0.6030989982682513</v>
+        <v>1.241802917838982</v>
       </c>
       <c r="D9">
-        <v>0.4302045305422126</v>
+        <v>0.02991588027068559</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.500128348622724</v>
+        <v>0.8073333776508207</v>
       </c>
       <c r="G9">
-        <v>0.0007394064992382892</v>
+        <v>0.0007617454721546846</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.837116672335014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.528368983823654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.221077320959409</v>
+        <v>5.547590483568001</v>
       </c>
       <c r="C10">
-        <v>0.741705188896816</v>
+        <v>1.480059749666111</v>
       </c>
       <c r="D10">
-        <v>0.5176145025720018</v>
+        <v>0.03293381024321462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.28538029329718</v>
+        <v>0.9551881879110766</v>
       </c>
       <c r="G10">
-        <v>0.0007181043650690595</v>
+        <v>0.0007494973955559284</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.838089281624235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.6197814715414509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.509550325798386</v>
+        <v>5.971343453743884</v>
       </c>
       <c r="C11">
-        <v>0.8086769774924392</v>
+        <v>1.590049537556638</v>
       </c>
       <c r="D11">
-        <v>0.5600403053063587</v>
+        <v>0.03442503388011886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.14679361882645</v>
+        <v>1.028906605106201</v>
       </c>
       <c r="G11">
-        <v>0.0007082210092084522</v>
+        <v>0.0007439914088057271</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.344449149033835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.6665640400200914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.62152350347742</v>
+        <v>6.13302325781774</v>
       </c>
       <c r="C12">
-        <v>0.834748802189722</v>
+        <v>1.631980738768846</v>
       </c>
       <c r="D12">
-        <v>0.5765999581024346</v>
+        <v>0.03500948971259277</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.48204430684797</v>
+        <v>1.057883115157608</v>
       </c>
       <c r="G12">
-        <v>0.0007044329524964469</v>
+        <v>0.0007419135888151376</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.546266959912458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.6851324361256061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.597276206369315</v>
+        <v>6.098145181415646</v>
       </c>
       <c r="C13">
-        <v>0.8290993958446506</v>
+        <v>1.622936772878063</v>
       </c>
       <c r="D13">
-        <v>0.5730094147789089</v>
+        <v>0.03488268969842778</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.40940156188952</v>
+        <v>1.05159303513355</v>
       </c>
       <c r="G13">
-        <v>0.0007052511466605245</v>
+        <v>0.0007423608045017434</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.502297356029246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.6810936482165886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.518703981034889</v>
+        <v>5.984619387621024</v>
       </c>
       <c r="C14">
-        <v>0.8108066952742092</v>
+        <v>1.593493315228102</v>
       </c>
       <c r="D14">
-        <v>0.5613920152093783</v>
+        <v>0.03447270418666193</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.17418005235896</v>
+        <v>1.031268440471976</v>
       </c>
       <c r="G14">
-        <v>0.0007079103970382361</v>
+        <v>0.0007438203354362055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.360831065398287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.6680739298390961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.470950985600837</v>
+        <v>5.915245991574636</v>
       </c>
       <c r="C15">
-        <v>0.7996994876173176</v>
+        <v>1.57549645066058</v>
       </c>
       <c r="D15">
-        <v>0.5543442416717426</v>
+        <v>0.03422423814592435</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.03134745620974</v>
+        <v>1.018961412130835</v>
       </c>
       <c r="G15">
-        <v>0.0007095327206121264</v>
+        <v>0.0007447152028952591</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.275591461001113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.6602133953191398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.202574763553173</v>
+        <v>5.520055625104362</v>
       </c>
       <c r="C16">
-        <v>0.7374191028814039</v>
+        <v>1.472908062935687</v>
       </c>
       <c r="D16">
-        <v>0.5149041918611488</v>
+        <v>0.03283896223906169</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.23023179914136</v>
+        <v>0.9505114122782459</v>
       </c>
       <c r="G16">
-        <v>0.0007187449965364417</v>
+        <v>0.0007498583590642149</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.80623294385876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.6168374350188159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.042179011400378</v>
+        <v>5.279559369402989</v>
       </c>
       <c r="C17">
-        <v>0.7003102163821495</v>
+        <v>1.410417981783098</v>
       </c>
       <c r="D17">
-        <v>0.4914599771773283</v>
+        <v>0.03202128170845953</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.752625189155992</v>
+        <v>0.9102628056612616</v>
       </c>
       <c r="G17">
-        <v>0.0007243360871565641</v>
+        <v>0.0007530288183553228</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.53298342652829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.5916300678783486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.951315263911226</v>
+        <v>5.141882419988804</v>
       </c>
       <c r="C18">
-        <v>0.6793244553911393</v>
+        <v>1.374623147943055</v>
       </c>
       <c r="D18">
-        <v>0.4782178825172991</v>
+        <v>0.03156192709840155</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.482413677144677</v>
+        <v>0.8877119659442769</v>
       </c>
       <c r="G18">
-        <v>0.0007275350955600462</v>
+        <v>0.0007548587201111364</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.380406923694864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.5776137459299164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.920774749106272</v>
+        <v>5.095373326820322</v>
       </c>
       <c r="C19">
-        <v>0.6722766331506023</v>
+        <v>1.362527607843504</v>
       </c>
       <c r="D19">
-        <v>0.4737731058719135</v>
+        <v>0.03140820163395119</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.391645813254769</v>
+        <v>0.8801757656397768</v>
       </c>
       <c r="G19">
-        <v>0.000728615785409513</v>
+        <v>0.0007554794467852963</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.329468988123793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.5729478942969379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.059105828704674</v>
+        <v>5.305091947769142</v>
       </c>
       <c r="C20">
-        <v>0.7042224817881788</v>
+        <v>1.417054520694137</v>
       </c>
       <c r="D20">
-        <v>0.493929867682283</v>
+        <v>0.03210717293827514</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.802989569145495</v>
+        <v>0.914484428328592</v>
       </c>
       <c r="G20">
-        <v>0.0007237427593193062</v>
+        <v>0.0007526906773562907</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.561579967830269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.5942627986923981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.541703265976651</v>
+        <v>6.017930004965649</v>
       </c>
       <c r="C21">
-        <v>0.8161590482091015</v>
+        <v>1.602133534119446</v>
       </c>
       <c r="D21">
-        <v>0.5647898591255114</v>
+        <v>0.03459256664483235</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24300595517172</v>
+        <v>1.037208336439917</v>
       </c>
       <c r="G21">
-        <v>0.0007071307149855358</v>
+        <v>0.0007433914605052975</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.402082093752455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.6718740848184197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.873413787803315</v>
+        <v>6.490997181100113</v>
       </c>
       <c r="C22">
-        <v>0.8935582108468338</v>
+        <v>1.724755873427057</v>
       </c>
       <c r="D22">
-        <v>0.6140608797630023</v>
+        <v>0.03633368308756246</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>12.2383134783538</v>
+        <v>1.123673366065177</v>
       </c>
       <c r="G22">
-        <v>0.0006959957204193886</v>
+        <v>0.0007373544591149241</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.012379519626364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.7276275512409995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.694661572026462</v>
+        <v>6.237781934049281</v>
       </c>
       <c r="C23">
-        <v>0.8518016808528444</v>
+        <v>1.65913980750355</v>
       </c>
       <c r="D23">
-        <v>0.5874462267902913</v>
+        <v>0.03539271564552138</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.70131914125528</v>
+        <v>1.0769045962424</v>
       </c>
       <c r="G23">
-        <v>0.000701971695912738</v>
+        <v>0.0007405736334195875</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.679818398032864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.6973722374641866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.05144904940272</v>
+        <v>5.293546853801729</v>
       </c>
       <c r="C24">
-        <v>0.7024526713127557</v>
+        <v>1.414053735379014</v>
       </c>
       <c r="D24">
-        <v>0.492812502035008</v>
+        <v>0.03206830825995155</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.780206358021843</v>
+        <v>0.9125740090812826</v>
       </c>
       <c r="G24">
-        <v>0.0007240110493169767</v>
+        <v>0.0007528435283814527</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.54863758633887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.5930710670900723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.409615515051541</v>
+        <v>4.299277100026245</v>
       </c>
       <c r="C25">
-        <v>0.5547212473079242</v>
+        <v>1.155188640695769</v>
       </c>
       <c r="D25">
-        <v>0.3997930475588305</v>
+        <v>0.02889327798304464</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.876010034066837</v>
+        <v>0.757816485817429</v>
       </c>
       <c r="G25">
-        <v>0.000747172111499896</v>
+        <v>0.0007663279440685176</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.500468144289428</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.4986827638463041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.581580424265837</v>
+        <v>2.48540317511123</v>
       </c>
       <c r="C2">
-        <v>0.9677207376580839</v>
+        <v>0.662644029485989</v>
       </c>
       <c r="D2">
-        <v>0.02682473666191498</v>
+        <v>0.1856442358180459</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6590287040881719</v>
+        <v>0.628828460855452</v>
       </c>
       <c r="G2">
-        <v>0.0007765448678639221</v>
+        <v>0.0007934094736994125</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1721337353029266</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.12864774931586</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8085895848787032</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.441438800064951</v>
+        <v>1.276091583018115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.101407423279852</v>
+        <v>2.164305189296556</v>
       </c>
       <c r="C3">
-        <v>0.8419506203149183</v>
+        <v>0.5789176203336694</v>
       </c>
       <c r="D3">
-        <v>0.02555633274549862</v>
+        <v>0.1696661481210953</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5997459015366147</v>
+        <v>0.6012370847808057</v>
       </c>
       <c r="G3">
-        <v>0.0007836806838782355</v>
+        <v>0.0007976947033966897</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1830561189668405</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.123997804872829</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7042701644487934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.408868982416891</v>
+        <v>1.236276059789759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.808850449527654</v>
+        <v>1.967296990367373</v>
       </c>
       <c r="C4">
-        <v>0.7651637689384643</v>
+        <v>0.5275336155074797</v>
       </c>
       <c r="D4">
-        <v>0.02483370443399835</v>
+        <v>0.1600112007852061</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5666054041895237</v>
+        <v>0.5859979455220099</v>
       </c>
       <c r="G4">
-        <v>0.000788175833797934</v>
+        <v>0.0008004101999463109</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1906247401432069</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1214478034424147</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6404644207658592</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3915279108543359</v>
+        <v>1.216149040288258</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.690096166251351</v>
+        <v>1.887024661775285</v>
       </c>
       <c r="C5">
-        <v>0.7339565019348129</v>
+        <v>0.5065931814058899</v>
       </c>
       <c r="D5">
-        <v>0.02455208031291534</v>
+        <v>0.1561132906228693</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5538488508102759</v>
+        <v>0.5801921296492552</v>
       </c>
       <c r="G5">
-        <v>0.0007900374992656396</v>
+        <v>0.0008015384317480418</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1939158615687706</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1204812880890245</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6145136851118949</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3850730448313016</v>
+        <v>1.208972640358823</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.670402261131073</v>
+        <v>1.873695362074614</v>
       </c>
       <c r="C6">
-        <v>0.7287789209343316</v>
+        <v>0.5031157761186478</v>
       </c>
       <c r="D6">
-        <v>0.02450605842130216</v>
+        <v>0.1554681809221563</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5517738616807506</v>
+        <v>0.5792518234008099</v>
       </c>
       <c r="G6">
-        <v>0.0007903484656846855</v>
+        <v>0.0008017270934546119</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1944745607189091</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.120325070332207</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.610207322070643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3840366013368453</v>
+        <v>1.207841227028823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.807247138578475</v>
+        <v>1.966214402969797</v>
       </c>
       <c r="C7">
-        <v>0.7647425891698276</v>
+        <v>0.5272512187792415</v>
       </c>
       <c r="D7">
-        <v>0.02482985589789877</v>
+        <v>0.1599584874877991</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5664304244551843</v>
+        <v>0.5859180399244934</v>
       </c>
       <c r="G7">
-        <v>0.0007882008183962289</v>
+        <v>0.0008004253274477846</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1906683006532202</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1214344798393228</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6401142496966585</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3914384526385604</v>
+        <v>1.216048182530926</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.415478633968632</v>
+        <v>2.374641152405331</v>
       </c>
       <c r="C8">
-        <v>0.9242483532201788</v>
+        <v>0.6337656209795171</v>
       </c>
       <c r="D8">
-        <v>0.0263749214979363</v>
+        <v>0.1801010782130277</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6378669613037147</v>
+        <v>0.6189470028823862</v>
       </c>
       <c r="G8">
-        <v>0.0007789824796528493</v>
+        <v>0.0007948697832834274</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.175714662467632</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1269786003597062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7725618860435191</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4296219846764373</v>
+        <v>1.261429038886774</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.631566192432729</v>
+        <v>3.178080965862989</v>
       </c>
       <c r="C9">
-        <v>1.241802917838982</v>
+        <v>0.8431920041486194</v>
       </c>
       <c r="D9">
-        <v>0.02991588027068559</v>
+        <v>0.2209617334586653</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8073333776508207</v>
+        <v>0.6983602081615743</v>
       </c>
       <c r="G9">
-        <v>0.0007617454721546846</v>
+        <v>0.0007846237457346867</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1537065274832266</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1404674615210197</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.034814919364933</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.528368983823654</v>
+        <v>1.387605748441246</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.547590483568001</v>
+        <v>3.77198089088813</v>
       </c>
       <c r="C10">
-        <v>1.480059749666111</v>
+        <v>0.9979483808433827</v>
       </c>
       <c r="D10">
-        <v>0.03293381024321462</v>
+        <v>0.25200170475118</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9551881879110766</v>
+        <v>0.7673232598515227</v>
       </c>
       <c r="G10">
-        <v>0.0007494973955559284</v>
+        <v>0.000777460193807087</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1426972205793007</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1522649950993511</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.229893492588502</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6197814715414509</v>
+        <v>1.50729433910152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.971343453743884</v>
+        <v>4.043453805040599</v>
       </c>
       <c r="C11">
-        <v>1.590049537556638</v>
+        <v>1.068680429963933</v>
       </c>
       <c r="D11">
-        <v>0.03442503388011886</v>
+        <v>0.266389732205667</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.028906605106201</v>
+        <v>0.8014079965553549</v>
       </c>
       <c r="G11">
-        <v>0.0007439914088057271</v>
+        <v>0.0007742730174132226</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1389768797846038</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1581120580521969</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.319370908986699</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6665640400200914</v>
+        <v>1.568640853766482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.13302325781774</v>
+        <v>4.146486245174401</v>
       </c>
       <c r="C12">
-        <v>1.631980738768846</v>
+        <v>1.095524757496662</v>
       </c>
       <c r="D12">
-        <v>0.03500948971259277</v>
+        <v>0.2718806844366668</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.057883115157608</v>
+        <v>0.8147418271998674</v>
       </c>
       <c r="G12">
-        <v>0.0007419135888151376</v>
+        <v>0.0007730757554511644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1377684892517088</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1604016151974861</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.353378079020118</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6851324361256061</v>
+        <v>1.592957265736203</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.098145181415646</v>
+        <v>4.124285328660051</v>
       </c>
       <c r="C13">
-        <v>1.622936772878063</v>
+        <v>1.089740499724883</v>
       </c>
       <c r="D13">
-        <v>0.03488268969842778</v>
+        <v>0.2706961513623014</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.05159303513355</v>
+        <v>0.8118505587355287</v>
       </c>
       <c r="G13">
-        <v>0.0007423608045017434</v>
+        <v>0.0007733331885670242</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1380195688251185</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1599050583068831</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.346048203199047</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6810936482165886</v>
+        <v>1.587670428071107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.984619387621024</v>
+        <v>4.051925440677564</v>
       </c>
       <c r="C14">
-        <v>1.593493315228102</v>
+        <v>1.070887662402811</v>
       </c>
       <c r="D14">
-        <v>0.03447270418666193</v>
+        <v>0.2668405999198598</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.031268440471976</v>
+        <v>0.8024962079508384</v>
       </c>
       <c r="G14">
-        <v>0.0007438203354362055</v>
+        <v>0.000774174328306898</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1388733565856093</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1582988720532441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.322166103658773</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6680739298390961</v>
+        <v>1.570619055193276</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915245991574636</v>
+        <v>4.007634439943445</v>
       </c>
       <c r="C15">
-        <v>1.57549645066058</v>
+        <v>1.059347889702877</v>
       </c>
       <c r="D15">
-        <v>0.03422423814592435</v>
+        <v>0.2644846248929866</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.018961412130835</v>
+        <v>0.7968230978566169</v>
       </c>
       <c r="G15">
-        <v>0.0007447152028952591</v>
+        <v>0.0007746907880432039</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1394228991126312</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1573250526852021</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.307554347415717</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6602133953191398</v>
+        <v>1.560318908905259</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.520055625104362</v>
+        <v>3.754269423386859</v>
       </c>
       <c r="C16">
-        <v>1.472908062935687</v>
+        <v>0.9933335538409551</v>
       </c>
       <c r="D16">
-        <v>0.03283896223906169</v>
+        <v>0.2510671377116722</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9505114122782459</v>
+        <v>0.7651533958329821</v>
       </c>
       <c r="G16">
-        <v>0.0007498583590642149</v>
+        <v>0.0007776698697041152</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1429675440848044</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1518930708610426</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.224062256560316</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6168374350188159</v>
+        <v>1.503431878088492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.279559369402989</v>
+        <v>3.599202480999054</v>
       </c>
       <c r="C17">
-        <v>1.410417981783098</v>
+        <v>0.9529291644269051</v>
       </c>
       <c r="D17">
-        <v>0.03202128170845953</v>
+        <v>0.2429072880431988</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9102628056612616</v>
+        <v>0.7464450666319493</v>
       </c>
       <c r="G17">
-        <v>0.0007530288183553228</v>
+        <v>0.000779515328612553</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1454823947918946</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1486880951058609</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.173043410778149</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5916300678783486</v>
+        <v>1.470365045897324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.141882419988804</v>
+        <v>3.510132053942868</v>
       </c>
       <c r="C18">
-        <v>1.374623147943055</v>
+        <v>0.9297201675154554</v>
       </c>
       <c r="D18">
-        <v>0.03156192709840155</v>
+        <v>0.2382389059062717</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8877119659442769</v>
+        <v>0.7359375507899273</v>
       </c>
       <c r="G18">
-        <v>0.0007548587201111364</v>
+        <v>0.000780583564004399</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1470491109072576</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1468894787478163</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.143766737920089</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5776137459299164</v>
+        <v>1.451989274294334</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.095373326820322</v>
+        <v>3.479993666051996</v>
       </c>
       <c r="C19">
-        <v>1.362527607843504</v>
+        <v>0.9218669019062702</v>
       </c>
       <c r="D19">
-        <v>0.03140820163395119</v>
+        <v>0.2366624395058778</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8801757656397768</v>
+        <v>0.7324222752882719</v>
       </c>
       <c r="G19">
-        <v>0.0007554794467852963</v>
+        <v>0.0007809464327223027</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.147599780073687</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1462880078198268</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.13386530861014</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5729478942969379</v>
+        <v>1.445875321503365</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.305091947769142</v>
+        <v>3.615696898322426</v>
       </c>
       <c r="C20">
-        <v>1.417054520694137</v>
+        <v>0.9572270376904157</v>
       </c>
       <c r="D20">
-        <v>0.03210717293827514</v>
+        <v>0.2437733079250251</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.914484428328592</v>
+        <v>0.7484101578892108</v>
       </c>
       <c r="G20">
-        <v>0.0007526906773562907</v>
+        <v>0.0007793181795290393</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1452021335553226</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1490245892264355</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.178467286692012</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5942627986923981</v>
+        <v>1.473817822352601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.017930004965649</v>
+        <v>4.073172641381291</v>
       </c>
       <c r="C21">
-        <v>1.602133534119446</v>
+        <v>1.076423479935954</v>
       </c>
       <c r="D21">
-        <v>0.03459256664483235</v>
+        <v>0.2679718813685952</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.037208336439917</v>
+        <v>0.8052319220208375</v>
       </c>
       <c r="G21">
-        <v>0.0007433914605052975</v>
+        <v>0.0007739270085460368</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1386170118085133</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1587685485202073</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.329177336088193</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6718740848184197</v>
+        <v>1.575597204522779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.490997181100113</v>
+        <v>4.373532195777841</v>
       </c>
       <c r="C22">
-        <v>1.724755873427057</v>
+        <v>1.154679093477853</v>
       </c>
       <c r="D22">
-        <v>0.03633368308756246</v>
+        <v>0.2840369711322239</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.123673366065177</v>
+        <v>0.8448743302703576</v>
       </c>
       <c r="G22">
-        <v>0.0007373544591149241</v>
+        <v>0.0007704594989223488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1354894005095382</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1655795991526858</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.428407530048389</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7276275512409995</v>
+        <v>1.648493841760938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.237781934049281</v>
+        <v>4.21308354729598</v>
       </c>
       <c r="C23">
-        <v>1.65913980750355</v>
+        <v>1.112876044487507</v>
       </c>
       <c r="D23">
-        <v>0.03539271564552138</v>
+        <v>0.2754384536443126</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.0769045962424</v>
+        <v>0.8234742843109615</v>
       </c>
       <c r="G23">
-        <v>0.0007405736334195875</v>
+        <v>0.0007723052793234133</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1370457032485781</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.161901668490259</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.375373037233544</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6973722374641866</v>
+        <v>1.608971030432599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.293546853801729</v>
+        <v>3.608239527513888</v>
       </c>
       <c r="C24">
-        <v>1.414053735379014</v>
+        <v>0.9552839076955024</v>
       </c>
       <c r="D24">
-        <v>0.03206830825995155</v>
+        <v>0.2433817095439252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9125740090812826</v>
+        <v>0.7475209699226752</v>
       </c>
       <c r="G24">
-        <v>0.0007528435283814527</v>
+        <v>0.0007794072879343698</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1453284642373305</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1488723237603438</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.17601498324926</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5930710670900723</v>
+        <v>1.472254851879427</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.299277100026245</v>
+        <v>2.960255136443379</v>
       </c>
       <c r="C25">
-        <v>1.155188640695769</v>
+        <v>0.7864230165103834</v>
       </c>
       <c r="D25">
-        <v>0.02889327798304464</v>
+        <v>0.2097433309953516</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.757816485817429</v>
+        <v>0.6751416609517094</v>
       </c>
       <c r="G25">
-        <v>0.0007663279440685176</v>
+        <v>0.0007873292482014595</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1588077123500682</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1365093251079372</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.963513226532541</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4986827638463041</v>
+        <v>1.349063226249399</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.48540317511123</v>
+        <v>0.8708544531477855</v>
       </c>
       <c r="C2">
-        <v>0.662644029485989</v>
+        <v>0.2115725435158708</v>
       </c>
       <c r="D2">
-        <v>0.1856442358180459</v>
+        <v>0.2831738088168265</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.628828460855452</v>
+        <v>1.169114993605803</v>
       </c>
       <c r="G2">
-        <v>0.0007934094736994125</v>
+        <v>0.002429833495797397</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1721337353029266</v>
+        <v>0.4923759621168529</v>
       </c>
       <c r="J2">
-        <v>0.12864774931586</v>
+        <v>0.2654150915616924</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8085895848787032</v>
+        <v>0.4317726924522987</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.276091583018115</v>
+        <v>2.48527645876618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.164305189296556</v>
+        <v>0.7692415225463947</v>
       </c>
       <c r="C3">
-        <v>0.5789176203336694</v>
+        <v>0.1848225412675788</v>
       </c>
       <c r="D3">
-        <v>0.1696661481210953</v>
+        <v>0.2801412553420448</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6012370847808057</v>
+        <v>1.174571900294438</v>
       </c>
       <c r="G3">
-        <v>0.0007976947033966897</v>
+        <v>0.002432651108401205</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1830561189668405</v>
+        <v>0.5016695270689357</v>
       </c>
       <c r="J3">
-        <v>0.123997804872829</v>
+        <v>0.2667356277561979</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7042701644487934</v>
+        <v>0.4014935418317975</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.236276059789759</v>
+        <v>2.505528179058203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.967296990367373</v>
+        <v>0.7067111210932069</v>
       </c>
       <c r="C4">
-        <v>0.5275336155074797</v>
+        <v>0.1683397309201098</v>
       </c>
       <c r="D4">
-        <v>0.1600112007852061</v>
+        <v>0.2783788234778228</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5859979455220099</v>
+        <v>1.178754154028084</v>
       </c>
       <c r="G4">
-        <v>0.0008004101999463109</v>
+        <v>0.002434473377209276</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1906247401432069</v>
+        <v>0.5077817493025414</v>
       </c>
       <c r="J4">
-        <v>0.1214478034424147</v>
+        <v>0.2677064589397489</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6404644207658592</v>
+        <v>0.3829769276011916</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.216149040288258</v>
+        <v>2.519955727439338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887024661775285</v>
+        <v>0.68119594481783</v>
       </c>
       <c r="C5">
-        <v>0.5065931814058899</v>
+        <v>0.161608608636044</v>
       </c>
       <c r="D5">
-        <v>0.1561132906228693</v>
+        <v>0.2776857411989369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5801921296492552</v>
+        <v>1.180667365264647</v>
       </c>
       <c r="G5">
-        <v>0.0008015384317480418</v>
+        <v>0.002435239231489994</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1939158615687706</v>
+        <v>0.5103744091218747</v>
       </c>
       <c r="J5">
-        <v>0.1204812880890245</v>
+        <v>0.2681422856184739</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6145136851118949</v>
+        <v>0.3754505206266856</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.208972640358823</v>
+        <v>2.526335325404546</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.873695362074614</v>
+        <v>0.6769571910970456</v>
       </c>
       <c r="C6">
-        <v>0.5031157761186478</v>
+        <v>0.1604900622611183</v>
       </c>
       <c r="D6">
-        <v>0.1554681809221563</v>
+        <v>0.2775721753159672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5792518234008099</v>
+        <v>1.18099766347482</v>
       </c>
       <c r="G6">
-        <v>0.0008017270934546119</v>
+        <v>0.002435367808081179</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1944745607189091</v>
+        <v>0.5108110658308682</v>
       </c>
       <c r="J6">
-        <v>0.120325070332207</v>
+        <v>0.2682170816497518</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.610207322070643</v>
+        <v>0.3742019426270602</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.207841227028823</v>
+        <v>2.5274248411706</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.966214402969797</v>
+        <v>0.7063671481509743</v>
       </c>
       <c r="C7">
-        <v>0.5272512187792415</v>
+        <v>0.1682490097992968</v>
       </c>
       <c r="D7">
-        <v>0.1599584874877991</v>
+        <v>0.2783693744916746</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5859180399244934</v>
+        <v>1.178779110702862</v>
       </c>
       <c r="G7">
-        <v>0.0008004253274477846</v>
+        <v>0.002434483611624096</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1906683006532202</v>
+        <v>0.5078163025743869</v>
       </c>
       <c r="J7">
-        <v>0.1214344798393228</v>
+        <v>0.2677121739050676</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6401142496966585</v>
+        <v>0.382875345276851</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.216048182530926</v>
+        <v>2.520039740588388</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.374641152405331</v>
+        <v>0.835848215888916</v>
       </c>
       <c r="C8">
-        <v>0.6337656209795171</v>
+        <v>0.2023614483340737</v>
       </c>
       <c r="D8">
-        <v>0.1801010782130277</v>
+        <v>0.2821075688690371</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6189470028823862</v>
+        <v>1.17082377930317</v>
       </c>
       <c r="G8">
-        <v>0.0007948697832834274</v>
+        <v>0.002430785905451211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.175714662467632</v>
+        <v>0.4954960144037024</v>
       </c>
       <c r="J8">
-        <v>0.1269786003597062</v>
+        <v>0.2658371811195366</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7725618860435191</v>
+        <v>0.4213171403526275</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.261429038886774</v>
+        <v>2.491845093043281</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.178080965862989</v>
+        <v>1.088595119354409</v>
       </c>
       <c r="C9">
-        <v>0.8431920041486194</v>
+        <v>0.268780106976152</v>
       </c>
       <c r="D9">
-        <v>0.2209617334586653</v>
+        <v>0.2902250376943698</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6983602081615743</v>
+        <v>1.16183384608135</v>
       </c>
       <c r="G9">
-        <v>0.0007846237457346867</v>
+        <v>0.00242426344211579</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1537065274832266</v>
+        <v>0.4745654034996427</v>
       </c>
       <c r="J9">
-        <v>0.1404674615210197</v>
+        <v>0.2634316527636358</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.034814919364933</v>
+        <v>0.4972809644886738</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.387605748441246</v>
+        <v>2.452409466049204</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.77198089088813</v>
+        <v>1.273520081180948</v>
       </c>
       <c r="C10">
-        <v>0.9979483808433827</v>
+        <v>0.3172739881642599</v>
       </c>
       <c r="D10">
-        <v>0.25200170475118</v>
+        <v>0.2966653295670341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7673232598515227</v>
+        <v>1.159276201641688</v>
       </c>
       <c r="G10">
-        <v>0.000777460193807087</v>
+        <v>0.002419911175705021</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1426972205793007</v>
+        <v>0.4611677476810492</v>
       </c>
       <c r="J10">
-        <v>0.1522649950993511</v>
+        <v>0.2624419511899418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.229893492588502</v>
+        <v>0.5534309965348854</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.50729433910152</v>
+        <v>2.433160262274328</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.043453805040599</v>
+        <v>1.357469503390575</v>
       </c>
       <c r="C11">
-        <v>1.068680429963933</v>
+        <v>0.3392665222817186</v>
       </c>
       <c r="D11">
-        <v>0.266389732205667</v>
+        <v>0.2996979891482283</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8014079965553549</v>
+        <v>1.158995319932899</v>
       </c>
       <c r="G11">
-        <v>0.0007742730174132226</v>
+        <v>0.002418025762527864</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1389768797846038</v>
+        <v>0.4555051696288501</v>
       </c>
       <c r="J11">
-        <v>0.1581120580521969</v>
+        <v>0.2621611507552402</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.319370908986699</v>
+        <v>0.5790462620778385</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.568640853766482</v>
+        <v>2.426527646690545</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.146486245174401</v>
+        <v>1.389232657518335</v>
       </c>
       <c r="C12">
-        <v>1.095524757496662</v>
+        <v>0.3475844858517689</v>
       </c>
       <c r="D12">
-        <v>0.2718806844366668</v>
+        <v>0.3008611090876059</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8147418271998674</v>
+        <v>1.159016156517396</v>
       </c>
       <c r="G12">
-        <v>0.0007730757554511644</v>
+        <v>0.002417325316357145</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1377684892517088</v>
+        <v>0.4534232425436677</v>
       </c>
       <c r="J12">
-        <v>0.1604016151974861</v>
+        <v>0.2620792243361052</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.353378079020118</v>
+        <v>0.5887561589899946</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.592957265736203</v>
+        <v>2.424322474816023</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.124285328660051</v>
+        <v>1.382393106512836</v>
       </c>
       <c r="C13">
-        <v>1.089740499724883</v>
+        <v>0.3457935207435412</v>
       </c>
       <c r="D13">
-        <v>0.2706961513623014</v>
+        <v>0.3006099571766754</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8118505587355287</v>
+        <v>1.159006007221109</v>
       </c>
       <c r="G13">
-        <v>0.0007733331885670242</v>
+        <v>0.002417475569597468</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1380195688251185</v>
+        <v>0.45386884519964</v>
       </c>
       <c r="J13">
-        <v>0.1599050583068831</v>
+        <v>0.2620957824609107</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.346048203199047</v>
+        <v>0.5866645234756618</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.587670428071107</v>
+        <v>2.424783751891511</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.051925440677564</v>
+        <v>1.360083221204491</v>
       </c>
       <c r="C14">
-        <v>1.070887662402811</v>
+        <v>0.3399510515676525</v>
       </c>
       <c r="D14">
-        <v>0.2668405999198598</v>
+        <v>0.2997933852481651</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8024962079508384</v>
+        <v>1.158994483269396</v>
       </c>
       <c r="G14">
-        <v>0.000774174328306898</v>
+        <v>0.002417967865873242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1388733565856093</v>
+        <v>0.4553326369335515</v>
       </c>
       <c r="J14">
-        <v>0.1582988720532441</v>
+        <v>0.2621539212212696</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.322166103658773</v>
+        <v>0.5798449042566602</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.570619055193276</v>
+        <v>2.426340078129215</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.007634439943445</v>
+        <v>1.346414249798102</v>
       </c>
       <c r="C15">
-        <v>1.059347889702877</v>
+        <v>0.3363710388039181</v>
       </c>
       <c r="D15">
-        <v>0.2644846248929866</v>
+        <v>0.2992951255145755</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7968230978566169</v>
+        <v>1.159003998139923</v>
       </c>
       <c r="G15">
-        <v>0.0007746907880432039</v>
+        <v>0.002418271170182426</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1394228991126312</v>
+        <v>0.4562373808130609</v>
       </c>
       <c r="J15">
-        <v>0.1573250526852021</v>
+        <v>0.2621927126653247</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.307554347415717</v>
+        <v>0.5756689732956346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.560318908905259</v>
+        <v>2.427333313122489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.754269423386859</v>
+        <v>1.268030147370951</v>
       </c>
       <c r="C16">
-        <v>0.9933335538409551</v>
+        <v>0.3158353290214677</v>
       </c>
       <c r="D16">
-        <v>0.2510671377116722</v>
+        <v>0.2964692022536894</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7651533958329821</v>
+        <v>1.159312342391232</v>
       </c>
       <c r="G16">
-        <v>0.0007776698697041152</v>
+        <v>0.002420036287188468</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1429675440848044</v>
+        <v>0.4615465252105473</v>
       </c>
       <c r="J16">
-        <v>0.1518930708610426</v>
+        <v>0.2624637151003029</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.224062256560316</v>
+        <v>0.5517583957123975</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.503431878088492</v>
+        <v>2.433636547057631</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.599202480999054</v>
+        <v>1.219898315426633</v>
       </c>
       <c r="C17">
-        <v>0.9529291644269051</v>
+        <v>0.3032197323246919</v>
       </c>
       <c r="D17">
-        <v>0.2429072880431988</v>
+        <v>0.2947618943754264</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7464450666319493</v>
+        <v>1.15972775939953</v>
       </c>
       <c r="G17">
-        <v>0.000779515328612553</v>
+        <v>0.002421143276009029</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1454823947918946</v>
+        <v>0.4649143476711686</v>
       </c>
       <c r="J17">
-        <v>0.1486880951058609</v>
+        <v>0.2626733902701019</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.173043410778149</v>
+        <v>0.537108236248713</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.470365045897324</v>
+        <v>2.43804810765414</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.510132053942868</v>
+        <v>1.192197891924934</v>
       </c>
       <c r="C18">
-        <v>0.9297201675154554</v>
+        <v>0.2959572387719618</v>
       </c>
       <c r="D18">
-        <v>0.2382389059062717</v>
+        <v>0.2937895901477106</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7359375507899273</v>
+        <v>1.160049754258964</v>
       </c>
       <c r="G18">
-        <v>0.000780583564004399</v>
+        <v>0.002421788881017906</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1470491109072576</v>
+        <v>0.466892085699282</v>
       </c>
       <c r="J18">
-        <v>0.1468894787478163</v>
+        <v>0.2628099338275263</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.143766737920089</v>
+        <v>0.5286886871300425</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.451989274294334</v>
+        <v>2.440785374610584</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.479993666051996</v>
+        <v>1.18281626171796</v>
       </c>
       <c r="C19">
-        <v>0.9218669019062702</v>
+        <v>0.2934972077181897</v>
       </c>
       <c r="D19">
-        <v>0.2366624395058778</v>
+        <v>0.2934620522064364</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7324222752882719</v>
+        <v>1.160173032830826</v>
       </c>
       <c r="G19">
-        <v>0.0007809464327223027</v>
+        <v>0.002422009001174903</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.147599780073687</v>
+        <v>0.467568689281368</v>
       </c>
       <c r="J19">
-        <v>0.1462880078198268</v>
+        <v>0.2628589021701657</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.13386530861014</v>
+        <v>0.5258391601666688</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.445875321503365</v>
+        <v>2.441746459688574</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.615696898322426</v>
+        <v>1.225023726789061</v>
       </c>
       <c r="C20">
-        <v>0.9572270376904157</v>
+        <v>0.3045633428999963</v>
       </c>
       <c r="D20">
-        <v>0.2437733079250251</v>
+        <v>0.2949426375267876</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7484101578892108</v>
+        <v>1.159674939303088</v>
       </c>
       <c r="G20">
-        <v>0.0007793181795290393</v>
+        <v>0.002421024515039814</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1452021335553226</v>
+        <v>0.4645516278088522</v>
       </c>
       <c r="J20">
-        <v>0.1490245892264355</v>
+        <v>0.2626494195313143</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.178467286692012</v>
+        <v>0.5386670665938453</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.473817822352601</v>
+        <v>2.437557797842771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.073172641381291</v>
+        <v>1.366636912352988</v>
       </c>
       <c r="C21">
-        <v>1.076423479935954</v>
+        <v>0.3416674046472963</v>
       </c>
       <c r="D21">
-        <v>0.2679718813685952</v>
+        <v>0.3000328334609748</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8052319220208375</v>
+        <v>1.158994413701905</v>
       </c>
       <c r="G21">
-        <v>0.0007739270085460368</v>
+        <v>0.002417822900141103</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1386170118085133</v>
+        <v>0.4549009912859638</v>
       </c>
       <c r="J21">
-        <v>0.1587685485202073</v>
+        <v>0.2621361817168761</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.329177336088193</v>
+        <v>0.5818477252109204</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.575597204522779</v>
+        <v>2.425874622036559</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.373532195777841</v>
+        <v>1.459033098557825</v>
       </c>
       <c r="C22">
-        <v>1.154679093477853</v>
+        <v>0.3658578083650355</v>
       </c>
       <c r="D22">
-        <v>0.2840369711322239</v>
+        <v>0.303445316951013</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8448743302703576</v>
+        <v>1.159291202531904</v>
       </c>
       <c r="G22">
-        <v>0.0007704594989223488</v>
+        <v>0.002415809228532983</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1354894005095382</v>
+        <v>0.4489573817638863</v>
       </c>
       <c r="J22">
-        <v>0.1655795991526858</v>
+        <v>0.2619430320891425</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.428407530048389</v>
+        <v>0.6101265820291104</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.648493841760938</v>
+        <v>2.420025727315192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21308354729598</v>
+        <v>1.409734355997159</v>
       </c>
       <c r="C23">
-        <v>1.112876044487507</v>
+        <v>0.3529524915738307</v>
       </c>
       <c r="D23">
-        <v>0.2754384536443126</v>
+        <v>0.3016161924371943</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8234742843109615</v>
+        <v>1.159064855542297</v>
       </c>
       <c r="G23">
-        <v>0.0007723052793234133</v>
+        <v>0.002416876776444567</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1370457032485781</v>
+        <v>0.4520962473299548</v>
       </c>
       <c r="J23">
-        <v>0.161901668490259</v>
+        <v>0.2620330863382208</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.375373037233544</v>
+        <v>0.5950284829533388</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.608971030432599</v>
+        <v>2.422983565002937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.608239527513888</v>
+        <v>1.222706617872291</v>
       </c>
       <c r="C24">
-        <v>0.9552839076955024</v>
+        <v>0.3039559264915397</v>
       </c>
       <c r="D24">
-        <v>0.2433817095439252</v>
+        <v>0.294860894729652</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7475209699226752</v>
+        <v>1.159698560230709</v>
       </c>
       <c r="G24">
-        <v>0.0007794072879343698</v>
+        <v>0.00242107817837478</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1453284642373305</v>
+        <v>0.46471548410479</v>
       </c>
       <c r="J24">
-        <v>0.1488723237603438</v>
+        <v>0.2626602068716792</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.17601498324926</v>
+        <v>0.5379623099471473</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.472254851879427</v>
+        <v>2.437778840870379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.960255136443379</v>
+        <v>1.020351163992018</v>
       </c>
       <c r="C25">
-        <v>0.7864230165103834</v>
+        <v>0.2508644810438341</v>
       </c>
       <c r="D25">
-        <v>0.2097433309953516</v>
+        <v>0.2879451507513551</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6751416609517094</v>
+        <v>1.163556369144843</v>
       </c>
       <c r="G25">
-        <v>0.0007873292482014595</v>
+        <v>0.0024259503891661</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1588077123500682</v>
+        <v>0.479880784606614</v>
       </c>
       <c r="J25">
-        <v>0.1365093251079372</v>
+        <v>0.2639460384589185</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.963513226532541</v>
+        <v>0.4766701415866237</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.349063226249399</v>
+        <v>2.461374444022283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8708544531477855</v>
+        <v>2.485403175111173</v>
       </c>
       <c r="C2">
-        <v>0.2115725435158708</v>
+        <v>0.6626440294858469</v>
       </c>
       <c r="D2">
-        <v>0.2831738088168265</v>
+        <v>0.1856442358178754</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.169114993605803</v>
+        <v>0.628828460855452</v>
       </c>
       <c r="G2">
-        <v>0.002429833495797397</v>
+        <v>0.0007934094736415009</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4923759621168529</v>
+        <v>0.1721337353029426</v>
       </c>
       <c r="J2">
-        <v>0.2654150915616924</v>
+        <v>0.1286477493158955</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4317726924522987</v>
+        <v>0.808589584878689</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.48527645876618</v>
+        <v>1.276091583018172</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7692415225463947</v>
+        <v>2.164305189296783</v>
       </c>
       <c r="C3">
-        <v>0.1848225412675788</v>
+        <v>0.5789176203338684</v>
       </c>
       <c r="D3">
-        <v>0.2801412553420448</v>
+        <v>0.1696661481212089</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.174571900294438</v>
+        <v>0.6012370847808057</v>
       </c>
       <c r="G3">
-        <v>0.002432651108401205</v>
+        <v>0.0007976947033762525</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5016695270689357</v>
+        <v>0.1830561189668423</v>
       </c>
       <c r="J3">
-        <v>0.2667356277561979</v>
+        <v>0.1239978048727579</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4014935418317975</v>
+        <v>0.7042701644488005</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.505528179058203</v>
+        <v>1.236276059789787</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7067111210932069</v>
+        <v>1.967296990367345</v>
       </c>
       <c r="C4">
-        <v>0.1683397309201098</v>
+        <v>0.5275336155077071</v>
       </c>
       <c r="D4">
-        <v>0.2783788234778228</v>
+        <v>0.1600112007853483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.178754154028084</v>
+        <v>0.5859979455220099</v>
       </c>
       <c r="G4">
-        <v>0.002434473377209276</v>
+        <v>0.0008004101999443483</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5077817493025414</v>
+        <v>0.1906247401432175</v>
       </c>
       <c r="J4">
-        <v>0.2677064589397489</v>
+        <v>0.1214478034424715</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3829769276011916</v>
+        <v>0.6404644207658592</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.519955727439338</v>
+        <v>1.216149040288258</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.68119594481783</v>
+        <v>1.887024661775257</v>
       </c>
       <c r="C5">
-        <v>0.161608608636044</v>
+        <v>0.5065931814056626</v>
       </c>
       <c r="D5">
-        <v>0.2776857411989369</v>
+        <v>0.1561132906230966</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.180667365264647</v>
+        <v>0.5801921296492552</v>
       </c>
       <c r="G5">
-        <v>0.002435239231489994</v>
+        <v>0.0008015384318056373</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5103744091218747</v>
+        <v>0.1939158615687582</v>
       </c>
       <c r="J5">
-        <v>0.2681422856184739</v>
+        <v>0.1204812880889889</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3754505206266856</v>
+        <v>0.6145136851118735</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.526335325404546</v>
+        <v>1.208972640358851</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6769571910970456</v>
+        <v>1.873695362074841</v>
       </c>
       <c r="C6">
-        <v>0.1604900622611183</v>
+        <v>0.5031157761187899</v>
       </c>
       <c r="D6">
-        <v>0.2775721753159672</v>
+        <v>0.1554681809221705</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.18099766347482</v>
+        <v>0.5792518234007673</v>
       </c>
       <c r="G6">
-        <v>0.002435367808081179</v>
+        <v>0.0008017270935530332</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5108110658308682</v>
+        <v>0.1944745607189251</v>
       </c>
       <c r="J6">
-        <v>0.2682170816497518</v>
+        <v>0.1203250703322638</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3742019426270602</v>
+        <v>0.6102073220706288</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.5274248411706</v>
+        <v>1.207841227028851</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7063671481509743</v>
+        <v>1.966214402969882</v>
       </c>
       <c r="C7">
-        <v>0.1682490097992968</v>
+        <v>0.5272512187792131</v>
       </c>
       <c r="D7">
-        <v>0.2783693744916746</v>
+        <v>0.1599584874878417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.178779110702862</v>
+        <v>0.5859180399245076</v>
       </c>
       <c r="G7">
-        <v>0.002434483611624096</v>
+        <v>0.0008004253273888873</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5078163025743869</v>
+        <v>0.1906683006532237</v>
       </c>
       <c r="J7">
-        <v>0.2677121739050676</v>
+        <v>0.1214344798392872</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.382875345276851</v>
+        <v>0.6401142496966727</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.520039740588388</v>
+        <v>1.21604818253094</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.835848215888916</v>
+        <v>2.374641152405331</v>
       </c>
       <c r="C8">
-        <v>0.2023614483340737</v>
+        <v>0.6337656209792328</v>
       </c>
       <c r="D8">
-        <v>0.2821075688690371</v>
+        <v>0.1801010782130987</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.17082377930317</v>
+        <v>0.6189470028823649</v>
       </c>
       <c r="G8">
-        <v>0.002430785905451211</v>
+        <v>0.0007948697832265866</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4954960144037024</v>
+        <v>0.1757146624676444</v>
       </c>
       <c r="J8">
-        <v>0.2658371811195366</v>
+        <v>0.1269786003597275</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4213171403526275</v>
+        <v>0.7725618860435119</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.491845093043281</v>
+        <v>1.261429038886831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.088595119354409</v>
+        <v>3.178080965862875</v>
       </c>
       <c r="C9">
-        <v>0.268780106976152</v>
+        <v>0.8431920041483636</v>
       </c>
       <c r="D9">
-        <v>0.2902250376943698</v>
+        <v>0.2209617334585232</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.16183384608135</v>
+        <v>0.6983602081615743</v>
       </c>
       <c r="G9">
-        <v>0.00242426344211579</v>
+        <v>0.0007846237457912963</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4745654034996427</v>
+        <v>0.153706527483223</v>
       </c>
       <c r="J9">
-        <v>0.2634316527636358</v>
+        <v>0.1404674615209984</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4972809644886738</v>
+        <v>1.034814919364933</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.452409466049204</v>
+        <v>1.38760574844116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.273520081180948</v>
+        <v>3.77198089088813</v>
       </c>
       <c r="C10">
-        <v>0.3172739881642599</v>
+        <v>0.9979483808431269</v>
       </c>
       <c r="D10">
-        <v>0.2966653295670341</v>
+        <v>0.2520017047510805</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.159276201641688</v>
+        <v>0.7673232598515227</v>
       </c>
       <c r="G10">
-        <v>0.002419911175705021</v>
+        <v>0.000777460193806645</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4611677476810492</v>
+        <v>0.1426972205792936</v>
       </c>
       <c r="J10">
-        <v>0.2624419511899418</v>
+        <v>0.1522649950994008</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5534309965348854</v>
+        <v>1.229893492588488</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.433160262274328</v>
+        <v>1.50729433910152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.357469503390575</v>
+        <v>4.043453805040599</v>
       </c>
       <c r="C11">
-        <v>0.3392665222817186</v>
+        <v>1.068680429963706</v>
       </c>
       <c r="D11">
-        <v>0.2996979891482283</v>
+        <v>0.2663897322057949</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.158995319932899</v>
+        <v>0.8014079965553691</v>
       </c>
       <c r="G11">
-        <v>0.002418025762527864</v>
+        <v>0.0007742730174626353</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4555051696288501</v>
+        <v>0.1389768797846074</v>
       </c>
       <c r="J11">
-        <v>0.2621611507552402</v>
+        <v>0.1581120580522608</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5790462620778385</v>
+        <v>1.319370908986713</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.426527646690545</v>
+        <v>1.568640853766482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.389232657518335</v>
+        <v>4.146486245174287</v>
       </c>
       <c r="C12">
-        <v>0.3475844858517689</v>
+        <v>1.095524757496548</v>
       </c>
       <c r="D12">
-        <v>0.3008611090876059</v>
+        <v>0.2718806844365531</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.159016156517396</v>
+        <v>0.8147418271998532</v>
       </c>
       <c r="G12">
-        <v>0.002417325316357145</v>
+        <v>0.0007730757554265437</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4534232425436677</v>
+        <v>0.1377684892517124</v>
       </c>
       <c r="J12">
-        <v>0.2620792243361052</v>
+        <v>0.1604016151975429</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5887561589899946</v>
+        <v>1.353378079020132</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.424322474816023</v>
+        <v>1.592957265736231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.382393106512836</v>
+        <v>4.124285328660051</v>
       </c>
       <c r="C13">
-        <v>0.3457935207435412</v>
+        <v>1.089740499724655</v>
       </c>
       <c r="D13">
-        <v>0.3006099571766754</v>
+        <v>0.2706961513621167</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.159006007221109</v>
+        <v>0.8118505587355287</v>
       </c>
       <c r="G13">
-        <v>0.002417475569597468</v>
+        <v>0.0007733331885704356</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.45386884519964</v>
+        <v>0.1380195688251327</v>
       </c>
       <c r="J13">
-        <v>0.2620957824609107</v>
+        <v>0.1599050583069328</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5866645234756618</v>
+        <v>1.346048203199061</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.424783751891511</v>
+        <v>1.587670428070993</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.360083221204491</v>
+        <v>4.051925440677621</v>
       </c>
       <c r="C14">
-        <v>0.3399510515676525</v>
+        <v>1.070887662403095</v>
       </c>
       <c r="D14">
-        <v>0.2997933852481651</v>
+        <v>0.2668405999199308</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.158994483269396</v>
+        <v>0.8024962079508526</v>
       </c>
       <c r="G14">
-        <v>0.002417967865873242</v>
+        <v>0.0007741743283049821</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4553326369335515</v>
+        <v>0.1388733565856128</v>
       </c>
       <c r="J14">
-        <v>0.2621539212212696</v>
+        <v>0.1582988720532867</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5798449042566602</v>
+        <v>1.322166103658745</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.426340078129215</v>
+        <v>1.570619055193248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.346414249798102</v>
+        <v>4.007634439943331</v>
       </c>
       <c r="C15">
-        <v>0.3363710388039181</v>
+        <v>1.059347889702821</v>
       </c>
       <c r="D15">
-        <v>0.2992951255145755</v>
+        <v>0.2644846248929866</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.159003998139923</v>
+        <v>0.7968230978566027</v>
       </c>
       <c r="G15">
-        <v>0.002418271170182426</v>
+        <v>0.0007746907880423384</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4562373808130609</v>
+        <v>0.1394228991126276</v>
       </c>
       <c r="J15">
-        <v>0.2621927126653247</v>
+        <v>0.1573250526851666</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5756689732956346</v>
+        <v>1.307554347415675</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.427333313122489</v>
+        <v>1.560318908905316</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.268030147370951</v>
+        <v>3.754269423386972</v>
       </c>
       <c r="C16">
-        <v>0.3158353290214677</v>
+        <v>0.9933335538409267</v>
       </c>
       <c r="D16">
-        <v>0.2964692022536894</v>
+        <v>0.2510671377117717</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.159312342391232</v>
+        <v>0.7651533958329679</v>
       </c>
       <c r="G16">
-        <v>0.002420036287188468</v>
+        <v>0.0007776698697598809</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4615465252105473</v>
+        <v>0.1429675440848079</v>
       </c>
       <c r="J16">
-        <v>0.2624637151003029</v>
+        <v>0.1518930708609929</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5517583957123975</v>
+        <v>1.224062256560345</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.433636547057631</v>
+        <v>1.503431878088634</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.219898315426633</v>
+        <v>3.599202480998883</v>
       </c>
       <c r="C17">
-        <v>0.3032197323246919</v>
+        <v>0.952929164426962</v>
       </c>
       <c r="D17">
-        <v>0.2947618943754264</v>
+        <v>0.2429072880431988</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.15972775939953</v>
+        <v>0.7464450666319351</v>
       </c>
       <c r="G17">
-        <v>0.002421143276009029</v>
+        <v>0.0007795153286119794</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4649143476711686</v>
+        <v>0.1454823947918982</v>
       </c>
       <c r="J17">
-        <v>0.2626733902701019</v>
+        <v>0.1486880951059675</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.537108236248713</v>
+        <v>1.173043410778163</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.43804810765414</v>
+        <v>1.470365045897267</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.192197891924934</v>
+        <v>3.510132053943153</v>
       </c>
       <c r="C18">
-        <v>0.2959572387719618</v>
+        <v>0.9297201675153417</v>
       </c>
       <c r="D18">
-        <v>0.2937895901477106</v>
+        <v>0.2382389059062291</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.160049754258964</v>
+        <v>0.7359375507899415</v>
       </c>
       <c r="G18">
-        <v>0.002421788881017906</v>
+        <v>0.0007805835639526852</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.466892085699282</v>
+        <v>0.1470491109072576</v>
       </c>
       <c r="J18">
-        <v>0.2628099338275263</v>
+        <v>0.1468894787478945</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5286886871300425</v>
+        <v>1.143766737920103</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.440785374610584</v>
+        <v>1.451989274294249</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.18281626171796</v>
+        <v>3.479993666051826</v>
       </c>
       <c r="C19">
-        <v>0.2934972077181897</v>
+        <v>0.9218669019057302</v>
       </c>
       <c r="D19">
-        <v>0.2934620522064364</v>
+        <v>0.2366624395059489</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.160173032830826</v>
+        <v>0.7324222752882577</v>
       </c>
       <c r="G19">
-        <v>0.002422009001174903</v>
+        <v>0.0007809464326645575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.467568689281368</v>
+        <v>0.147599780073687</v>
       </c>
       <c r="J19">
-        <v>0.2628589021701657</v>
+        <v>0.1462880078198268</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5258391601666688</v>
+        <v>1.133865308610169</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.441746459688574</v>
+        <v>1.445875321503394</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.225023726789061</v>
+        <v>3.615696898322653</v>
       </c>
       <c r="C20">
-        <v>0.3045633428999963</v>
+        <v>0.9572270376905294</v>
       </c>
       <c r="D20">
-        <v>0.2949426375267876</v>
+        <v>0.2437733079251814</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.159674939303088</v>
+        <v>0.7484101578891966</v>
       </c>
       <c r="G20">
-        <v>0.002421024515039814</v>
+        <v>0.0007793181795272552</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4645516278088522</v>
+        <v>0.1452021335553262</v>
       </c>
       <c r="J20">
-        <v>0.2626494195313143</v>
+        <v>0.1490245892263289</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5386670665938453</v>
+        <v>1.178467286692026</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.437557797842771</v>
+        <v>1.473817822352629</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.366636912352988</v>
+        <v>4.073172641381234</v>
       </c>
       <c r="C21">
-        <v>0.3416674046472963</v>
+        <v>1.076423479936125</v>
       </c>
       <c r="D21">
-        <v>0.3000328334609748</v>
+        <v>0.2679718813684815</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.158994413701905</v>
+        <v>0.8052319220208233</v>
       </c>
       <c r="G21">
-        <v>0.002417822900141103</v>
+        <v>0.0007739270085225471</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4549009912859638</v>
+        <v>0.1386170118085133</v>
       </c>
       <c r="J21">
-        <v>0.2621361817168761</v>
+        <v>0.1587685485201717</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5818477252109204</v>
+        <v>1.329177336088208</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.425874622036559</v>
+        <v>1.575597204522836</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.459033098557825</v>
+        <v>4.373532195777841</v>
       </c>
       <c r="C22">
-        <v>0.3658578083650355</v>
+        <v>1.15467909347791</v>
       </c>
       <c r="D22">
-        <v>0.303445316951013</v>
+        <v>0.2840369711322239</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.159291202531904</v>
+        <v>0.8448743302703576</v>
       </c>
       <c r="G22">
-        <v>0.002415809228532983</v>
+        <v>0.0007704594988967811</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4489573817638863</v>
+        <v>0.1354894005095488</v>
       </c>
       <c r="J22">
-        <v>0.2619430320891425</v>
+        <v>0.1655795991526787</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6101265820291104</v>
+        <v>1.428407530048361</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.420025727315192</v>
+        <v>1.648493841760853</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.409734355997159</v>
+        <v>4.21308354729598</v>
       </c>
       <c r="C23">
-        <v>0.3529524915738307</v>
+        <v>1.112876044486995</v>
       </c>
       <c r="D23">
-        <v>0.3016161924371943</v>
+        <v>0.2754384536441989</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.159064855542297</v>
+        <v>0.8234742843109615</v>
       </c>
       <c r="G23">
-        <v>0.002416876776444567</v>
+        <v>0.0007723052792974632</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4520962473299548</v>
+        <v>0.137045703248571</v>
       </c>
       <c r="J23">
-        <v>0.2620330863382208</v>
+        <v>0.1619016684903087</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5950284829533388</v>
+        <v>1.37537303723353</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.422983565002937</v>
+        <v>1.608971030432599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.222706617872291</v>
+        <v>3.608239527513945</v>
       </c>
       <c r="C24">
-        <v>0.3039559264915397</v>
+        <v>0.9552839076954456</v>
       </c>
       <c r="D24">
-        <v>0.294860894729652</v>
+        <v>0.243381709543911</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.159698560230709</v>
+        <v>0.7475209699226752</v>
       </c>
       <c r="G24">
-        <v>0.00242107817837478</v>
+        <v>0.0007794072879625139</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.46471548410479</v>
+        <v>0.1453284642373127</v>
       </c>
       <c r="J24">
-        <v>0.2626602068716792</v>
+        <v>0.1488723237603296</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5379623099471473</v>
+        <v>1.17601498324926</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.437778840870379</v>
+        <v>1.47225485187937</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.020351163992018</v>
+        <v>2.960255136443379</v>
       </c>
       <c r="C25">
-        <v>0.2508644810438341</v>
+        <v>0.7864230165107244</v>
       </c>
       <c r="D25">
-        <v>0.2879451507513551</v>
+        <v>0.2097433309954226</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.163556369144843</v>
+        <v>0.6751416609517022</v>
       </c>
       <c r="G25">
-        <v>0.0024259503891661</v>
+        <v>0.0007873292481427319</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.479880784606614</v>
+        <v>0.1588077123500469</v>
       </c>
       <c r="J25">
-        <v>0.2639460384589185</v>
+        <v>0.1365093251079799</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4766701415866237</v>
+        <v>0.9635132265325623</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.461374444022283</v>
+        <v>1.34906322624937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.485403175111173</v>
+        <v>3.506395119513286</v>
       </c>
       <c r="C2">
-        <v>0.6626440294858469</v>
+        <v>1.005492578283054</v>
       </c>
       <c r="D2">
-        <v>0.1856442358178754</v>
+        <v>0.1045226073699155</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.628828460855452</v>
+        <v>0.1518819135325309</v>
       </c>
       <c r="G2">
-        <v>0.0007934094736415009</v>
+        <v>0.06673873631615734</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1721337353029426</v>
+        <v>0.008060264407068196</v>
       </c>
       <c r="J2">
-        <v>0.1286477493158955</v>
+        <v>0.1026648142359754</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.08175654923541398</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.808589584878689</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.276091583018172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.3072957480281886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.164305189296783</v>
+        <v>3.061716609626558</v>
       </c>
       <c r="C3">
-        <v>0.5789176203338684</v>
+        <v>0.8922852566440724</v>
       </c>
       <c r="D3">
-        <v>0.1696661481212089</v>
+        <v>0.09137719516109399</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6012370847808057</v>
+        <v>0.1453966910592683</v>
       </c>
       <c r="G3">
-        <v>0.0007976947033762525</v>
+        <v>0.06628402200002981</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1830561189668423</v>
+        <v>0.006134108036093711</v>
       </c>
       <c r="J3">
-        <v>0.1239978048727579</v>
+        <v>0.107746868687812</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.09078744558268514</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7042701644488005</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.236276059789787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.316676859817818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.967296990367345</v>
+        <v>2.788079452289821</v>
       </c>
       <c r="C4">
-        <v>0.5275336155077071</v>
+        <v>0.8231368358268014</v>
       </c>
       <c r="D4">
-        <v>0.1600112007853483</v>
+        <v>0.08332426009692284</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5859979455220099</v>
+        <v>0.1419330783778641</v>
       </c>
       <c r="G4">
-        <v>0.0008004101999443483</v>
+        <v>0.06646168866858559</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1906247401432175</v>
+        <v>0.005080077292845431</v>
       </c>
       <c r="J4">
-        <v>0.1214478034424715</v>
+        <v>0.1111863617552267</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0968004720798934</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6404644207658592</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.216149040288258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.324066420924126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887024661775257</v>
+        <v>2.676380466052819</v>
       </c>
       <c r="C5">
-        <v>0.5065931814056626</v>
+        <v>0.7963420742959784</v>
       </c>
       <c r="D5">
-        <v>0.1561132906230966</v>
+        <v>0.08013045528132068</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5801921296492552</v>
+        <v>0.1403927005716668</v>
       </c>
       <c r="G5">
-        <v>0.0008015384318056373</v>
+        <v>0.06645007409038683</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1939158615687582</v>
+        <v>0.004733200220477851</v>
       </c>
       <c r="J5">
-        <v>0.1204812880889889</v>
+        <v>0.1125568281618925</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.09939957347778794</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6145136851118735</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.208972640358851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.3268322563289843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.873695362074841</v>
+        <v>2.65779029269288</v>
       </c>
       <c r="C6">
-        <v>0.5031157761187899</v>
+        <v>0.7934924345888703</v>
       </c>
       <c r="D6">
-        <v>0.1554681809221705</v>
+        <v>0.07970321276118852</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5792518234007673</v>
+        <v>0.1398361736480958</v>
       </c>
       <c r="G6">
-        <v>0.0008017270935530332</v>
+        <v>0.06622013116723124</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1944745607189251</v>
+        <v>0.004749495751531718</v>
       </c>
       <c r="J6">
-        <v>0.1203250703322638</v>
+        <v>0.1126566735315002</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.09988291447647146</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6102073220706288</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.207841227028851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.3265402133571129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.966214402969882</v>
+        <v>2.786485400806157</v>
       </c>
       <c r="C7">
-        <v>0.5272512187792131</v>
+        <v>0.8271433154131103</v>
       </c>
       <c r="D7">
-        <v>0.1599584874878417</v>
+        <v>0.08356282895179135</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5859180399245076</v>
+        <v>0.1410710214781759</v>
       </c>
       <c r="G7">
-        <v>0.0008004253273888873</v>
+        <v>0.06582160340659726</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1906683006532237</v>
+        <v>0.005258433835409804</v>
       </c>
       <c r="J7">
-        <v>0.1214344798392872</v>
+        <v>0.1108444640445718</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.09696199719868037</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6401142496966727</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.21604818253094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.3219915121140318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.374641152405331</v>
+        <v>3.353072763518412</v>
       </c>
       <c r="C8">
-        <v>0.6337656209792328</v>
+        <v>0.9722221182387329</v>
       </c>
       <c r="D8">
-        <v>0.1801010782130987</v>
+        <v>0.1003617719036924</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6189470028823649</v>
+        <v>0.1484249429145024</v>
       </c>
       <c r="G8">
-        <v>0.0007948697832265866</v>
+        <v>0.0656422294933563</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1757146624676444</v>
+        <v>0.007586945604459494</v>
       </c>
       <c r="J8">
-        <v>0.1269786003597275</v>
+        <v>0.1038792374225146</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.08496001004076081</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7725618860435119</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.261429038886831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.30741234275051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.178080965862875</v>
+        <v>4.460150649224545</v>
       </c>
       <c r="C9">
-        <v>0.8431920041483636</v>
+        <v>1.252040616269767</v>
       </c>
       <c r="D9">
-        <v>0.2209617334585232</v>
+        <v>0.1329777563432799</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6983602081615743</v>
+        <v>0.168797716983363</v>
       </c>
       <c r="G9">
-        <v>0.0007846237457912963</v>
+        <v>0.07037245826047211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.153706527483223</v>
+        <v>0.01302534375375952</v>
       </c>
       <c r="J9">
-        <v>0.1404674615209984</v>
+        <v>0.09352613870242266</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.06509002215902981</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.034814919364933</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.38760574844116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.2964630904637318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.77198089088813</v>
+        <v>5.271993252993582</v>
       </c>
       <c r="C10">
-        <v>0.9979483808431269</v>
+        <v>1.462434554256333</v>
       </c>
       <c r="D10">
-        <v>0.2520017047510805</v>
+        <v>0.1572530295207031</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7673232598515227</v>
+        <v>0.1865643225763591</v>
       </c>
       <c r="G10">
-        <v>0.000777460193806645</v>
+        <v>0.07641248510305587</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1426972205792936</v>
+        <v>0.01799947662389467</v>
       </c>
       <c r="J10">
-        <v>0.1522649950994008</v>
+        <v>0.08758423009263083</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.05329445256879595</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.229893492588488</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.50729433910152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.2973073682916834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.043453805040599</v>
+        <v>5.641123872951994</v>
       </c>
       <c r="C11">
-        <v>1.068680429963706</v>
+        <v>1.566314710228198</v>
       </c>
       <c r="D11">
-        <v>0.2663897322057949</v>
+        <v>0.168823528717013</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8014079965553691</v>
+        <v>0.1941119257421349</v>
       </c>
       <c r="G11">
-        <v>0.0007742730174626353</v>
+        <v>0.07888709592105414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1389768797846074</v>
+        <v>0.02080806746261299</v>
       </c>
       <c r="J11">
-        <v>0.1581120580522608</v>
+        <v>0.08477561635920239</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.04892009234191086</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.319370908986713</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.568640853766482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.2968838707088395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.146486245174287</v>
+        <v>5.780992671317222</v>
       </c>
       <c r="C12">
-        <v>1.095524757496548</v>
+        <v>1.601814521764197</v>
       </c>
       <c r="D12">
-        <v>0.2718806844365531</v>
+        <v>0.1729608751346348</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8147418271998532</v>
+        <v>0.1978153712015285</v>
       </c>
       <c r="G12">
-        <v>0.0007730757554265437</v>
+        <v>0.0804770470731242</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1377684892517124</v>
+        <v>0.02174798482750528</v>
       </c>
       <c r="J12">
-        <v>0.1604016151975429</v>
+        <v>0.08407636617619119</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.04719846774596892</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.353378079020132</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.592957265736231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.2988697363287116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.124285328660051</v>
+        <v>5.750883017755768</v>
       </c>
       <c r="C13">
-        <v>1.089740499724655</v>
+        <v>1.593365334711734</v>
       </c>
       <c r="D13">
-        <v>0.2706961513621167</v>
+        <v>0.1720184500718034</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8118505587355287</v>
+        <v>0.1971560161243886</v>
       </c>
       <c r="G13">
-        <v>0.0007733331885704356</v>
+        <v>0.08023689820300461</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1380195688251327</v>
+        <v>0.02150839983454134</v>
       </c>
       <c r="J13">
-        <v>0.1599050583069328</v>
+        <v>0.08428291815905453</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.04752946396464175</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.346048203199061</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.587670428070993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.2987761366516821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.051925440677621</v>
+        <v>5.652636742726088</v>
       </c>
       <c r="C14">
-        <v>1.070887662403095</v>
+        <v>1.568893951927919</v>
       </c>
       <c r="D14">
-        <v>0.2668405999199308</v>
+        <v>0.1691420876690017</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8024962079508526</v>
+        <v>0.1944752220005412</v>
       </c>
       <c r="G14">
-        <v>0.0007741743283049821</v>
+        <v>0.07906124799595915</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1388733565856128</v>
+        <v>0.02086928224541662</v>
       </c>
       <c r="J14">
-        <v>0.1582988720532867</v>
+        <v>0.08474181236388745</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.04876151177398391</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.322166103658745</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.570619055193248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.2971888627082819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.007634439943331</v>
+        <v>5.592431909890649</v>
       </c>
       <c r="C15">
-        <v>1.059347889702821</v>
+        <v>1.555490679892614</v>
       </c>
       <c r="D15">
-        <v>0.2644846248929866</v>
+        <v>0.167481678706892</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7968230978566027</v>
+        <v>0.1925662699788191</v>
       </c>
       <c r="G15">
-        <v>0.0007746907880423384</v>
+        <v>0.07814458110345157</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1394228991126276</v>
+        <v>0.02055667349521162</v>
       </c>
       <c r="J15">
-        <v>0.1573250526851666</v>
+        <v>0.08491543915236122</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.04959844194025376</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.307554347415675</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.560318908905316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.2955746707327904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.754269423386972</v>
+        <v>5.247627406332015</v>
       </c>
       <c r="C16">
-        <v>0.9933335538409267</v>
+        <v>1.468849373655473</v>
       </c>
       <c r="D16">
-        <v>0.2510671377117717</v>
+        <v>0.1573410707406424</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7651533958329679</v>
+        <v>0.1836899300915817</v>
       </c>
       <c r="G16">
-        <v>0.0007776698697598809</v>
+        <v>0.07447113811775807</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1429675440848079</v>
+        <v>0.01838736727688239</v>
       </c>
       <c r="J16">
-        <v>0.1518930708609929</v>
+        <v>0.08678874123854285</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.05415152161491044</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.224062256560345</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.503431878088634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.2915109516323895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.599202480998883</v>
+        <v>5.036104772637771</v>
       </c>
       <c r="C17">
-        <v>0.952929164426962</v>
+        <v>1.415823119833192</v>
       </c>
       <c r="D17">
-        <v>0.2429072880431988</v>
+        <v>0.1511299088423357</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7464450666319351</v>
+        <v>0.1784699273608581</v>
       </c>
       <c r="G17">
-        <v>0.0007795153286119794</v>
+        <v>0.07241951592248341</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1454823947918982</v>
+        <v>0.01712596265379673</v>
       </c>
       <c r="J17">
-        <v>0.1486880951059675</v>
+        <v>0.08805885126002266</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05711464142172407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.173043410778163</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.470365045897267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.2896973714996278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.510132053943153</v>
+        <v>4.914510455782363</v>
       </c>
       <c r="C18">
-        <v>0.9297201675153417</v>
+        <v>1.381374255167088</v>
       </c>
       <c r="D18">
-        <v>0.2382389059062291</v>
+        <v>0.1473055919045834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7359375507899415</v>
+        <v>0.1762723502771379</v>
       </c>
       <c r="G18">
-        <v>0.0007805835639526852</v>
+        <v>0.07185271329827003</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1470491109072576</v>
+        <v>0.01621544010110476</v>
       </c>
       <c r="J18">
-        <v>0.1468894787478945</v>
+        <v>0.08913193623186544</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.05871000224928746</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.143766737920103</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.451989274294249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.2906712882949449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.479993666051826</v>
+        <v>4.873282856620563</v>
       </c>
       <c r="C19">
-        <v>0.9218669019057302</v>
+        <v>1.372796743102924</v>
       </c>
       <c r="D19">
-        <v>0.2366624395059489</v>
+        <v>0.1462080391380738</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7324222752882577</v>
+        <v>0.1749820625533758</v>
       </c>
       <c r="G19">
-        <v>0.0007809464326645575</v>
+        <v>0.07125436538305507</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.147599780073687</v>
+        <v>0.01606920608482021</v>
       </c>
       <c r="J19">
-        <v>0.1462880078198268</v>
+        <v>0.08927148173979305</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05939077769113865</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.133865308610169</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.445875321503394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.289670397311923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.615696898322653</v>
+        <v>5.058627820157426</v>
       </c>
       <c r="C20">
-        <v>0.9572270376905294</v>
+        <v>1.421149461486664</v>
       </c>
       <c r="D20">
-        <v>0.2437733079251814</v>
+        <v>0.1517707048938064</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7484101578891966</v>
+        <v>0.1790741635179387</v>
       </c>
       <c r="G20">
-        <v>0.0007793181795272552</v>
+        <v>0.07267294861165396</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1452021335553262</v>
+        <v>0.01724100844007914</v>
       </c>
       <c r="J20">
-        <v>0.1490245892263289</v>
+        <v>0.0879425988796072</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.05677939809809995</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.178467286692026</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.473817822352629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.2900044871498721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.073172641381234</v>
+        <v>5.681412062465427</v>
       </c>
       <c r="C21">
-        <v>1.076423479936125</v>
+        <v>1.58055971601101</v>
       </c>
       <c r="D21">
-        <v>0.2679718813684815</v>
+        <v>0.1702727487690225</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8052319220208233</v>
+        <v>0.1944516421357108</v>
       </c>
       <c r="G21">
-        <v>0.0007739270085225471</v>
+        <v>0.07880097252669316</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1386170118085133</v>
+        <v>0.02126692141313491</v>
       </c>
       <c r="J21">
-        <v>0.1587685485201717</v>
+        <v>0.08427408337290387</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.04859529619277314</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.329177336088208</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.575597204522836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.2956737852842508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.373532195777841</v>
+        <v>6.08863769969804</v>
       </c>
       <c r="C22">
-        <v>1.15467909347791</v>
+        <v>1.679500197079562</v>
       </c>
       <c r="D22">
-        <v>0.2840369711322239</v>
+        <v>0.1820375044000855</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8448743302703576</v>
+        <v>0.2063061006424434</v>
       </c>
       <c r="G22">
-        <v>0.0007704594988967811</v>
+        <v>0.08427072987307582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1354894005095488</v>
+        <v>0.02386630180196647</v>
       </c>
       <c r="J22">
-        <v>0.1655795991526787</v>
+        <v>0.08270981968460234</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.04357494966161202</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.428407530048361</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.648493841760853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.304223604060823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21308354729598</v>
+        <v>5.87137608428111</v>
       </c>
       <c r="C23">
-        <v>1.112876044486995</v>
+        <v>1.621248992284336</v>
       </c>
       <c r="D23">
-        <v>0.2754384536441989</v>
+        <v>0.1754100205634757</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8234742843109615</v>
+        <v>0.2008779179061051</v>
       </c>
       <c r="G23">
-        <v>0.0007723052792974632</v>
+        <v>0.08201072359980088</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.137045703248571</v>
+        <v>0.02221863937222412</v>
       </c>
       <c r="J23">
-        <v>0.1619016684903087</v>
+        <v>0.08390436397248635</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.04596037993314983</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.37537303723353</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.608971030432599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.3018121552440078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.608239527513945</v>
+        <v>5.048600548353647</v>
       </c>
       <c r="C24">
-        <v>0.9552839076954456</v>
+        <v>1.410293620140408</v>
       </c>
       <c r="D24">
-        <v>0.243381709543911</v>
+        <v>0.1509410513169911</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7475209699226752</v>
+        <v>0.180337169740433</v>
       </c>
       <c r="G24">
-        <v>0.0007794072879625139</v>
+        <v>0.07370760358206496</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1453284642373127</v>
+        <v>0.01678613741342438</v>
       </c>
       <c r="J24">
-        <v>0.1488723237603296</v>
+        <v>0.0886291040526217</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.05657430029704358</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.17601498324926</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.47225485187937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.2936302246660887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.960255136443379</v>
+        <v>4.160845306915292</v>
       </c>
       <c r="C25">
-        <v>0.7864230165107244</v>
+        <v>1.184041777485675</v>
       </c>
       <c r="D25">
-        <v>0.2097433309954226</v>
+        <v>0.1246487194390227</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6751416609517022</v>
+        <v>0.1612556210255605</v>
       </c>
       <c r="G25">
-        <v>0.0007873292481427319</v>
+        <v>0.06749031289822227</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1588077123500469</v>
+        <v>0.01174038846800851</v>
       </c>
       <c r="J25">
-        <v>0.1365093251079799</v>
+        <v>0.09539192648924555</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.07031781314461849</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9635132265325623</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.34906322624937</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.2940749924728792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.506395119513286</v>
+        <v>3.501942891280521</v>
       </c>
       <c r="C2">
-        <v>1.005492578283054</v>
+        <v>0.9699416840358879</v>
       </c>
       <c r="D2">
-        <v>0.1045226073699155</v>
+        <v>0.1028408364605298</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1518819135325309</v>
+        <v>0.1604916506358478</v>
       </c>
       <c r="G2">
-        <v>0.06673873631615734</v>
+        <v>0.06268216083875444</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008060264407068196</v>
+        <v>0.007567697221745107</v>
       </c>
       <c r="J2">
-        <v>0.1026648142359754</v>
+        <v>0.1490266102337046</v>
       </c>
       <c r="K2">
-        <v>0.08175654923541398</v>
+        <v>0.08385071655624632</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07025995251090716</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01173042576291383</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.3072957480281886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.3339488238320314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.061716609626558</v>
+        <v>3.059185986677107</v>
       </c>
       <c r="C3">
-        <v>0.8922852566440724</v>
+        <v>0.8534599725500414</v>
       </c>
       <c r="D3">
-        <v>0.09137719516109399</v>
+        <v>0.08948188950412117</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1453966910592683</v>
+        <v>0.1543542375936546</v>
       </c>
       <c r="G3">
-        <v>0.06628402200002981</v>
+        <v>0.06145115206863494</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006134108036093711</v>
+        <v>0.005906491858159946</v>
       </c>
       <c r="J3">
-        <v>0.107746868687812</v>
+        <v>0.1534041164368745</v>
       </c>
       <c r="K3">
-        <v>0.09078744558268514</v>
+        <v>0.09210197427388422</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07376879650871615</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01539809214045551</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.316676859817818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.3436389589639077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.788079452289821</v>
+        <v>2.786645025974849</v>
       </c>
       <c r="C4">
-        <v>0.8231368358268014</v>
+        <v>0.7825124117056532</v>
       </c>
       <c r="D4">
-        <v>0.08332426009692284</v>
+        <v>0.08131197250135358</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1419330783778641</v>
+        <v>0.1510065841408128</v>
       </c>
       <c r="G4">
-        <v>0.06646168866858559</v>
+        <v>0.06113073013083437</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005080077292845431</v>
+        <v>0.004995283599309008</v>
       </c>
       <c r="J4">
-        <v>0.1111863617552267</v>
+        <v>0.1562700426398962</v>
       </c>
       <c r="K4">
-        <v>0.0968004720798934</v>
+        <v>0.09758930640960539</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07637205888478071</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01802553698766385</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.324066420924126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.3509242742684648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.676380466052819</v>
+        <v>2.675374618059323</v>
       </c>
       <c r="C5">
-        <v>0.7963420742959784</v>
+        <v>0.7549725175798585</v>
       </c>
       <c r="D5">
-        <v>0.08013045528132068</v>
+        <v>0.07807062655292185</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1403927005716668</v>
+        <v>0.149487463821675</v>
       </c>
       <c r="G5">
-        <v>0.06645007409038683</v>
+        <v>0.0609078364183695</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004733200220477851</v>
+        <v>0.00471502774750121</v>
       </c>
       <c r="J5">
-        <v>0.1125568281618925</v>
+        <v>0.1573629849495042</v>
       </c>
       <c r="K5">
-        <v>0.09939957347778794</v>
+        <v>0.09994271616387396</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07749629307432127</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01924585214548991</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.3268322563289843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.3535555238613881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.65779029269288</v>
+        <v>2.656854330687622</v>
       </c>
       <c r="C6">
-        <v>0.7934924345888703</v>
+        <v>0.7519218970893462</v>
       </c>
       <c r="D6">
-        <v>0.07970321276118852</v>
+        <v>0.07763145406477179</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1398361736480958</v>
+        <v>0.1489302398220005</v>
       </c>
       <c r="G6">
-        <v>0.06622013116723124</v>
+        <v>0.06063956449685293</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004749495751531718</v>
+        <v>0.004759454757692794</v>
       </c>
       <c r="J6">
-        <v>0.1126566735315002</v>
+        <v>0.1574025993240191</v>
       </c>
       <c r="K6">
-        <v>0.09988291447647146</v>
+        <v>0.1003597125246456</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07763104666990195</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01952413677965747</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3265402133571129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.3532112789209521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.786485400806157</v>
+        <v>2.785010448704782</v>
       </c>
       <c r="C7">
-        <v>0.8271433154131103</v>
+        <v>0.7857241618629587</v>
       </c>
       <c r="D7">
-        <v>0.08356282895179135</v>
+        <v>0.08170536074733548</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1410710214781759</v>
+        <v>0.1496430101529782</v>
       </c>
       <c r="G7">
-        <v>0.06582160340659726</v>
+        <v>0.0617314137199898</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005258433835409804</v>
+        <v>0.005214288151058177</v>
       </c>
       <c r="J7">
-        <v>0.1108444640445718</v>
+        <v>0.1539175398702994</v>
       </c>
       <c r="K7">
-        <v>0.09696199719868037</v>
+        <v>0.09771813092176629</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07620195064547231</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01828465324190365</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.3219915121140318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.3475461527422326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.353072763518412</v>
+        <v>3.349149879836034</v>
       </c>
       <c r="C8">
-        <v>0.9722221182387329</v>
+        <v>0.9333263437546577</v>
       </c>
       <c r="D8">
-        <v>0.1003617719036924</v>
+        <v>0.09915152558636464</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1484249429145024</v>
+        <v>0.155536235557733</v>
       </c>
       <c r="G8">
-        <v>0.0656422294933563</v>
+        <v>0.06551165567919881</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007586945604459494</v>
+        <v>0.007227822718958166</v>
       </c>
       <c r="J8">
-        <v>0.1038792374225146</v>
+        <v>0.1437339748886082</v>
       </c>
       <c r="K8">
-        <v>0.08496001004076081</v>
+        <v>0.08687610723533989</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07120014758030417</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01326619843336108</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.30741234275051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.3301298977725367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.460150649224545</v>
+        <v>4.450774565969368</v>
       </c>
       <c r="C9">
-        <v>1.252040616269767</v>
+        <v>1.222136936208983</v>
       </c>
       <c r="D9">
-        <v>0.1329777563432799</v>
+        <v>0.1325569915515388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.168797716983363</v>
+        <v>0.1740188941518213</v>
       </c>
       <c r="G9">
-        <v>0.07037245826047211</v>
+        <v>0.07323216340233074</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01302534375375952</v>
+        <v>0.01181111163459203</v>
       </c>
       <c r="J9">
-        <v>0.09352613870242266</v>
+        <v>0.1326819143654099</v>
       </c>
       <c r="K9">
-        <v>0.06509002215902981</v>
+        <v>0.06882434664379655</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06524899469292356</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.006039024213388089</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2964630904637318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.3156697565061535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.271993252993582</v>
+        <v>5.257614177244477</v>
       </c>
       <c r="C10">
-        <v>1.462434554256333</v>
+        <v>1.436527016018033</v>
       </c>
       <c r="D10">
-        <v>0.1572530295207031</v>
+        <v>0.1584983790478987</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1865643225763591</v>
+        <v>0.1869814157535146</v>
       </c>
       <c r="G10">
-        <v>0.07641248510305587</v>
+        <v>0.08907004779050709</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01799947662389467</v>
+        <v>0.01599376432468969</v>
       </c>
       <c r="J10">
-        <v>0.08758423009263083</v>
+        <v>0.1159535459843326</v>
       </c>
       <c r="K10">
-        <v>0.05329445256879595</v>
+        <v>0.05845614562465418</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06330342921326615</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.002898098617984068</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2973073682916834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.3053336577515182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.641123872951994</v>
+        <v>5.623781889692225</v>
       </c>
       <c r="C11">
-        <v>1.566314710228198</v>
+        <v>1.535966374850773</v>
       </c>
       <c r="D11">
-        <v>0.168823528717013</v>
+        <v>0.1726813177968438</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1941119257421349</v>
+        <v>0.1872600941961693</v>
       </c>
       <c r="G11">
-        <v>0.07888709592105414</v>
+        <v>0.1105831350875874</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02080806746261299</v>
+        <v>0.01841402987742669</v>
       </c>
       <c r="J11">
-        <v>0.08477561635920239</v>
+        <v>0.09655772467667845</v>
       </c>
       <c r="K11">
-        <v>0.04892009234191086</v>
+        <v>0.05549201736380915</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06350017330220492</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.002180203714274409</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.2968838707088395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.2877135623914171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.780992671317222</v>
+        <v>5.762439227563959</v>
       </c>
       <c r="C12">
-        <v>1.601814521764197</v>
+        <v>1.569144155349306</v>
       </c>
       <c r="D12">
-        <v>0.1729608751346348</v>
+        <v>0.1780661861996151</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.1978153712015285</v>
+        <v>0.1875448469450447</v>
       </c>
       <c r="G12">
-        <v>0.0804770470731242</v>
+        <v>0.1218208837527044</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02174798482750528</v>
+        <v>0.01914746249001187</v>
       </c>
       <c r="J12">
-        <v>0.08407636617619119</v>
+        <v>0.09011134047646863</v>
       </c>
       <c r="K12">
-        <v>0.04719846774596892</v>
+        <v>0.05444104995366583</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06367987861902513</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.00193595081598863</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2988697363287116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.2816559787364099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.750883017755768</v>
+        <v>5.732594072014479</v>
       </c>
       <c r="C13">
-        <v>1.593365334711734</v>
+        <v>1.561259366271941</v>
       </c>
       <c r="D13">
-        <v>0.1720184500718034</v>
+        <v>0.1768441606763815</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1971560161243886</v>
+        <v>0.1876429097103909</v>
       </c>
       <c r="G13">
-        <v>0.08023689820300461</v>
+        <v>0.1194028475971791</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02150839983454134</v>
+        <v>0.01894345256028895</v>
       </c>
       <c r="J13">
-        <v>0.08428291815905453</v>
+        <v>0.09145424453400786</v>
       </c>
       <c r="K13">
-        <v>0.04752946396464175</v>
+        <v>0.0546176769122475</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06361532608716658</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.00197517936792968</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2987761366516821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.2833332924123084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.652636742726088</v>
+        <v>5.635196731639724</v>
       </c>
       <c r="C14">
-        <v>1.568893951927919</v>
+        <v>1.53838256488433</v>
       </c>
       <c r="D14">
-        <v>0.1691420876690017</v>
+        <v>0.1730976659269032</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1944752220005412</v>
+        <v>0.1873521804581131</v>
       </c>
       <c r="G14">
-        <v>0.07906124799595915</v>
+        <v>0.1115053116630733</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02086928224541662</v>
+        <v>0.01845444963203491</v>
       </c>
       <c r="J14">
-        <v>0.08474181236388745</v>
+        <v>0.09601257467998003</v>
       </c>
       <c r="K14">
-        <v>0.04876151177398391</v>
+        <v>0.05538477179583978</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06350430319380607</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.002154275632518132</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2971888627082819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.287376425093143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.592431909890649</v>
+        <v>5.575500962988599</v>
       </c>
       <c r="C15">
-        <v>1.555490679892614</v>
+        <v>1.525797764713673</v>
       </c>
       <c r="D15">
-        <v>0.167481678706892</v>
+        <v>0.1709360220350931</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.1925662699788191</v>
+        <v>0.1868350838995525</v>
       </c>
       <c r="G15">
-        <v>0.07814458110345157</v>
+        <v>0.1067805629571126</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02055667349521162</v>
+        <v>0.01825137550096922</v>
       </c>
       <c r="J15">
-        <v>0.08491543915236122</v>
+        <v>0.09889571405012276</v>
       </c>
       <c r="K15">
-        <v>0.04959844194025376</v>
+        <v>0.05595773015538263</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06349010432973134</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.002294365172444746</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.2955746707327904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.2890591479910256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.247627406332015</v>
+        <v>5.233432889741323</v>
       </c>
       <c r="C16">
-        <v>1.468849373655473</v>
+        <v>1.442674086672582</v>
       </c>
       <c r="D16">
-        <v>0.1573410707406424</v>
+        <v>0.1584276426278137</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1836899300915817</v>
+        <v>0.1845652152360913</v>
       </c>
       <c r="G16">
-        <v>0.07447113811775807</v>
+        <v>0.08607658779100547</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01838736727688239</v>
+        <v>0.01655700306017671</v>
       </c>
       <c r="J16">
-        <v>0.08678874123854285</v>
+        <v>0.1163830178348526</v>
       </c>
       <c r="K16">
-        <v>0.05415152161491044</v>
+        <v>0.05921201210838944</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06351236655986447</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.003132472734171721</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2915109516323895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.3006440732075646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.036104772637771</v>
+        <v>5.023430860360918</v>
       </c>
       <c r="C17">
-        <v>1.415823119833192</v>
+        <v>1.390494932656452</v>
       </c>
       <c r="D17">
-        <v>0.1511299088423357</v>
+        <v>0.1511793972195505</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1784699273608581</v>
+        <v>0.1822806025615407</v>
       </c>
       <c r="G17">
-        <v>0.07241951592248341</v>
+        <v>0.07710694518385708</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01712596265379673</v>
+        <v>0.01556080768229329</v>
       </c>
       <c r="J17">
-        <v>0.08805885126002266</v>
+        <v>0.1259382621613767</v>
       </c>
       <c r="K17">
-        <v>0.05711464142172407</v>
+        <v>0.06156150624119228</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06377197147538904</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.003793623607339924</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2896973714996278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.3057988616681087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.914510455782363</v>
+        <v>4.902653410509174</v>
       </c>
       <c r="C18">
-        <v>1.381374255167088</v>
+        <v>1.356211029720612</v>
       </c>
       <c r="D18">
-        <v>0.1473055919045834</v>
+        <v>0.1469095656182446</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1762723502771379</v>
+        <v>0.1813612137218144</v>
       </c>
       <c r="G18">
-        <v>0.07185271329827003</v>
+        <v>0.07366974967963102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01621544010110476</v>
+        <v>0.01474020384411823</v>
       </c>
       <c r="J18">
-        <v>0.08913193623186544</v>
+        <v>0.1307865871969902</v>
       </c>
       <c r="K18">
-        <v>0.05871000224928746</v>
+        <v>0.06288055226970712</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0639566300230161</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.004168121613202125</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.2906712882949449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.3098087939338683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.873282856620563</v>
+        <v>4.861693454510089</v>
       </c>
       <c r="C19">
-        <v>1.372796743102924</v>
+        <v>1.347507688739938</v>
       </c>
       <c r="D19">
-        <v>0.1462080391380738</v>
+        <v>0.1456788631507919</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.1749820625533758</v>
+        <v>0.1804471178113332</v>
       </c>
       <c r="G19">
-        <v>0.07125436538305507</v>
+        <v>0.07227331808622495</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01606920608482021</v>
+        <v>0.01466339626277424</v>
       </c>
       <c r="J19">
-        <v>0.08927148173979305</v>
+        <v>0.1320077814460987</v>
       </c>
       <c r="K19">
-        <v>0.05939077769113865</v>
+        <v>0.06346105641835109</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06406514221072523</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.004352083091285763</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.289670397311923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.3096909546261628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.058627820157426</v>
+        <v>5.045797900646392</v>
       </c>
       <c r="C20">
-        <v>1.421149461486664</v>
+        <v>1.395789859014599</v>
       </c>
       <c r="D20">
-        <v>0.1517707048938064</v>
+        <v>0.1519161504782147</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.1790741635179387</v>
+        <v>0.1826126038571161</v>
       </c>
       <c r="G20">
-        <v>0.07267294861165396</v>
+        <v>0.07797928089159001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01724100844007914</v>
+        <v>0.01564432287527051</v>
       </c>
       <c r="J20">
-        <v>0.0879425988796072</v>
+        <v>0.1250312819461072</v>
       </c>
       <c r="K20">
-        <v>0.05677939809809995</v>
+        <v>0.06128684455528877</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06373202370525011</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.003712818258729822</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.2900044871498721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.305460780894208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.681412062465427</v>
+        <v>5.66356514894153</v>
       </c>
       <c r="C21">
-        <v>1.58055971601101</v>
+        <v>1.547263129977694</v>
       </c>
       <c r="D21">
-        <v>0.1702727487690225</v>
+        <v>0.1751274350582577</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1944516421357108</v>
+        <v>0.1849374722750881</v>
       </c>
       <c r="G21">
-        <v>0.07880097252669316</v>
+        <v>0.1184939979320561</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02126692141313491</v>
+        <v>0.01884045065643836</v>
       </c>
       <c r="J21">
-        <v>0.08427408337290387</v>
+        <v>0.09153426742862436</v>
       </c>
       <c r="K21">
-        <v>0.04859529619277314</v>
+        <v>0.05566685432552276</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06376171111314122</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.002233407977299873</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.2956737852842508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.2802660474187491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.08863769969804</v>
+        <v>6.06726700816705</v>
       </c>
       <c r="C22">
-        <v>1.679500197079562</v>
+        <v>1.640287818101001</v>
       </c>
       <c r="D22">
-        <v>0.1820375044000855</v>
+        <v>0.1903743142437975</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2063061006424434</v>
+        <v>0.1873315922540186</v>
       </c>
       <c r="G22">
-        <v>0.08427072987307582</v>
+        <v>0.1521069226293363</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02386630180196647</v>
+        <v>0.02077808257383928</v>
       </c>
       <c r="J22">
-        <v>0.08270981968460234</v>
+        <v>0.08024287706783717</v>
       </c>
       <c r="K22">
-        <v>0.04357494966161202</v>
+        <v>0.05257495363757769</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06440445726512856</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.001536110579501759</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.304223604060823</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.2666959117805021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.87137608428111</v>
+        <v>5.852015180554815</v>
       </c>
       <c r="C23">
-        <v>1.621248992284336</v>
+        <v>1.586986721920482</v>
       </c>
       <c r="D23">
-        <v>0.1754100205634757</v>
+        <v>0.1813972152533125</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2008779179061051</v>
+        <v>0.1881800308722035</v>
       </c>
       <c r="G23">
-        <v>0.08201072359980088</v>
+        <v>0.1304575660450737</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02221863937222412</v>
+        <v>0.01943995230834528</v>
       </c>
       <c r="J23">
-        <v>0.08390436397248635</v>
+        <v>0.08655777471410087</v>
       </c>
       <c r="K23">
-        <v>0.04596037993314983</v>
+        <v>0.05365662091540191</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06376289031088334</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.001757833592716196</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.3018121552440078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.2788663161678357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.048600548353647</v>
+        <v>5.035839457702991</v>
       </c>
       <c r="C24">
-        <v>1.410293620140408</v>
+        <v>1.385237909586635</v>
       </c>
       <c r="D24">
-        <v>0.1509410513169911</v>
+        <v>0.1510584014765612</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.180337169740433</v>
+        <v>0.1839667914839467</v>
       </c>
       <c r="G24">
-        <v>0.07370760358206496</v>
+        <v>0.07875216333999191</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01678613741342438</v>
+        <v>0.01509865342090233</v>
       </c>
       <c r="J24">
-        <v>0.0886291040526217</v>
+        <v>0.126033316807483</v>
       </c>
       <c r="K24">
-        <v>0.05657430029704358</v>
+        <v>0.0610886987608108</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06364598961812007</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.003626095897556247</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.2936302246660887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.3093141980282041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.160845306915292</v>
+        <v>4.153121314885311</v>
       </c>
       <c r="C25">
-        <v>1.184041777485675</v>
+        <v>1.15206393007162</v>
       </c>
       <c r="D25">
-        <v>0.1246487194390227</v>
+        <v>0.1237411341718655</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1612556210255605</v>
+        <v>0.1678018912596109</v>
       </c>
       <c r="G25">
-        <v>0.06749031289822227</v>
+        <v>0.06772536267974161</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01174038846800851</v>
+        <v>0.01087593381019669</v>
       </c>
       <c r="J25">
-        <v>0.09539192648924555</v>
+        <v>0.1374464205040162</v>
       </c>
       <c r="K25">
-        <v>0.07031781314461849</v>
+        <v>0.07347306881897087</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06646469517474252</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.007772660462382674</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.2940749924728792</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.3162430525552011</v>
       </c>
     </row>
   </sheetData>
